--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>614659.8240451845</v>
+        <v>698340.3979660786</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12454934.45781348</v>
+        <v>12477039.73816156</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5696660.572628295</v>
+        <v>7009463.23176477</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9765443.051637171</v>
+        <v>9126030.188353421</v>
       </c>
     </row>
     <row r="11">
@@ -656,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>267.325116387098</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>165.1725371760946</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>187.52558716632</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -735,25 +737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>37.82966457688256</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714238</v>
       </c>
       <c r="S3" t="n">
-        <v>137.5750138932992</v>
+        <v>138.2613113589522</v>
       </c>
       <c r="T3" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -835,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>23.08909934006222</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845801</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.4253613259178</v>
+        <v>187.52558716632</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>46.97649376286401</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -978,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1023,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>129.3223376181645</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1054,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>94.29514568096062</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>89.28741136156185</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888212</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>183.2066400136062</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1145,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>129.471426936784</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>26.17372043046388</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>4.68306152291919</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>71.95852102484504</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>36.39022724310102</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.099573361141172</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>101.9169808818406</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1421,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1543,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1582,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>17.12429652526512</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1604,28 +1606,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>94.81275980261439</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1670,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>149.6801548313977</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.9899243971805</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>57.29212650174169</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>75.45713216103701</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1901,16 +1903,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>12.49249177278821</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>81.72898226868529</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2090,16 +2092,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>240.2451530332447</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>203.9179701396201</v>
@@ -2138,13 +2140,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>23.79925355567458</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2242,7 +2244,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2284,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>43.33214111914504</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2315,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>85.1466686905728</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>121.3416305177542</v>
       </c>
     </row>
     <row r="24">
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16.40950281067985</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2491,10 +2493,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>13.02719212039609</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2561,19 +2563,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>28.93382893561908</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2615,13 +2617,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>9.152727013335143</v>
       </c>
     </row>
     <row r="27">
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2722,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -2731,7 +2733,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>201.360032484281</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>34.43605357443352</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2798,19 +2800,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>396.2429621606545</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>186.0867603502133</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>6.380068175848154</v>
       </c>
       <c r="S31" t="n">
-        <v>179.455549002054</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3013,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3029,7 +3031,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -3038,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>219.2801061481986</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>229.796569204137</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3126,7 +3128,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247723</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>87.52274688849866</v>
       </c>
       <c r="C34" t="n">
-        <v>2.153367246128644</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>245.6036755614943</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
@@ -3314,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>293.2392394028578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>35.22061871095692</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3436,13 +3438,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3477,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3515,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>37.84125266805028</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.0955237083908</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3727,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3752,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>304.919905495285</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>173.5578851713661</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>70.93341719265807</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3958,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>262.4110427631165</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3983,13 +3985,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>235.9375844494528</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4028,13 +4030,13 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>217.0914199928484</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4198,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>148.8823210979751</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1567.371569473107</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="C2" t="n">
-        <v>1198.409052532695</v>
+        <v>583.26140202276</v>
       </c>
       <c r="D2" t="n">
-        <v>840.1433539259449</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="E2" t="n">
-        <v>454.3551013277007</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="F2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>366.8168396232718</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>669.5878927711869</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N2" t="n">
-        <v>1417.286540135168</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O2" t="n">
-        <v>1761.960612545598</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>2021.630958172449</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U2" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="V2" t="n">
-        <v>1837.396939561085</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="W2" t="n">
-        <v>1837.396939561085</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="X2" t="n">
-        <v>1837.396939561085</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Y2" t="n">
-        <v>1837.396939561085</v>
+        <v>750.1023486652798</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>768.6187622948573</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>730.4069798939659</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>581.4725702327146</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>422.235115227259</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>275.700557254144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>138.8245634692599</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>89.55356510562336</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>246.6448318504523</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L3" t="n">
-        <v>661.0941860772707</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>981.0010815457804</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>1323.783605540412</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.477412699315</v>
+        <v>649.2101578476351</v>
       </c>
       <c r="P3" t="n">
-        <v>2074.985828260215</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q3" t="n">
-        <v>2168.459826904656</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R3" t="n">
-        <v>2168.459826904656</v>
+        <v>722.9192922843279</v>
       </c>
       <c r="S3" t="n">
-        <v>2029.495166406374</v>
+        <v>583.26140202276</v>
       </c>
       <c r="T3" t="n">
-        <v>1834.78484488035</v>
+        <v>583.26140202276</v>
       </c>
       <c r="U3" t="n">
-        <v>1606.683255013614</v>
+        <v>583.26140202276</v>
       </c>
       <c r="V3" t="n">
-        <v>1606.683255013614</v>
+        <v>393.8416170062752</v>
       </c>
       <c r="W3" t="n">
-        <v>1352.445898285412</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X3" t="n">
-        <v>1144.594398079879</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="Y3" t="n">
-        <v>936.8340993149254</v>
+        <v>15.0020469733056</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>360.2184730483932</v>
+        <v>186.2374631214181</v>
       </c>
       <c r="C4" t="n">
-        <v>191.2822901204862</v>
+        <v>186.2374631214181</v>
       </c>
       <c r="D4" t="n">
-        <v>191.2822901204862</v>
+        <v>186.2374631214181</v>
       </c>
       <c r="E4" t="n">
-        <v>43.36919653809311</v>
+        <v>38.32436953902501</v>
       </c>
       <c r="F4" t="n">
-        <v>43.36919653809311</v>
+        <v>38.32436953902501</v>
       </c>
       <c r="G4" t="n">
-        <v>43.36919653809311</v>
+        <v>38.32436953902501</v>
       </c>
       <c r="H4" t="n">
-        <v>43.36919653809311</v>
+        <v>38.32436953902501</v>
       </c>
       <c r="I4" t="n">
-        <v>43.36919653809311</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>58.69630920174244</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>213.7203003246708</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>467.6240706728887</v>
+        <v>187.8896250884407</v>
       </c>
       <c r="M4" t="n">
-        <v>745.7191196640791</v>
+        <v>373.5399563830974</v>
       </c>
       <c r="N4" t="n">
-        <v>1022.636306385109</v>
+        <v>471.6341805242519</v>
       </c>
       <c r="O4" t="n">
-        <v>1262.397853152953</v>
+        <v>634.372383960802</v>
       </c>
       <c r="P4" t="n">
-        <v>1444.034594271087</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="Q4" t="n">
-        <v>1486.355378693648</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="R4" t="n">
-        <v>1486.355378693648</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="S4" t="n">
-        <v>1486.355378693648</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="T4" t="n">
-        <v>1262.751521386272</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="U4" t="n">
-        <v>973.6252003602951</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="V4" t="n">
-        <v>718.9407121544083</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="W4" t="n">
-        <v>718.9407121544083</v>
+        <v>746.7254979846275</v>
       </c>
       <c r="X4" t="n">
-        <v>490.9511612563909</v>
+        <v>557.3057129681426</v>
       </c>
       <c r="Y4" t="n">
-        <v>360.2184730483932</v>
+        <v>367.8859279516578</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1201.628001464564</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="C5" t="n">
-        <v>832.6654845241519</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="D5" t="n">
-        <v>832.6654845241519</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="E5" t="n">
-        <v>832.6654845241519</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="F5" t="n">
-        <v>421.6795797345444</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>49.2826908791767</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>294.517494751591</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>495.5981834030607</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T5" t="n">
-        <v>2228.894479532451</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V5" t="n">
-        <v>1927.862414995757</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W5" t="n">
-        <v>1575.093759725643</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="X5" t="n">
-        <v>1201.628001464564</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="Y5" t="n">
-        <v>1201.628001464564</v>
+        <v>1054.855520006024</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>340.3997601587378</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.9467308776108</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>65.46256898749989</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>95.78113116957456</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>242.5255548298711</v>
       </c>
       <c r="M6" t="n">
-        <v>956.284402521753</v>
+        <v>433.1262439263948</v>
       </c>
       <c r="N6" t="n">
-        <v>1343.569531118698</v>
+        <v>694.2029851278858</v>
       </c>
       <c r="O6" t="n">
-        <v>1675.63996629486</v>
+        <v>864.1415324546155</v>
       </c>
       <c r="P6" t="n">
-        <v>2238.100841080695</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>924.2268961492925</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>716.3753959437597</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>508.6150971788058</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>570.4526592426272</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="C7" t="n">
-        <v>475.205037342667</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="D7" t="n">
-        <v>325.0883979303312</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>629.0866528456006</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>482.1967053476902</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>313.6273447026937</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>159.7059716361717</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>36.32155393434486</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227042</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075538</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816802</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>926.0629918407072</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="U7" t="n">
-        <v>825.137147448514</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="V7" t="n">
-        <v>570.4526592426272</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="W7" t="n">
-        <v>570.4526592426272</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="X7" t="n">
-        <v>570.4526592426272</v>
+        <v>719.2759572512186</v>
       </c>
       <c r="Y7" t="n">
-        <v>570.4526592426272</v>
+        <v>719.2759572512186</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1983.4026147697</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1614.440097829288</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>459.4002418346859</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>1417.286540135168</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>1761.960612545598</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>2021.630958172449</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="T8" t="n">
-        <v>3084.535934008201</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="U8" t="n">
-        <v>3084.535934008201</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="V8" t="n">
-        <v>3084.535934008201</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2168.459826904656</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.673216672172</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064538</v>
+        <v>69.80729798300612</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>214.3836900926281</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>371.4749568374571</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>629.0260923974449</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>948.9329878659546</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1347.427370741492</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1638.786616996058</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>1853.295032556959</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2154.74554605989</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2168.459826904656</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2029.495166406374</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2029.495166406374</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>1801.393576539638</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1566.241468307895</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1312.004111579693</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>860.3104774125019</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>691.374294484595</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>691.374294484595</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>618.6889197120242</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>471.7989722141139</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>303.6661428091322</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>153.6259293129249</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>43.36919653809311</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>58.69630920174244</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>213.7203003246708</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>467.6240706728887</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>745.7191196640791</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1262.397853152953</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1444.034594271087</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1486.355378693648</v>
       </c>
       <c r="T10" t="n">
-        <v>1609.020401376785</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="U10" t="n">
-        <v>1609.020401376785</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="V10" t="n">
-        <v>1609.020401376785</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="W10" t="n">
-        <v>1319.603231339825</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="X10" t="n">
-        <v>1091.613680441807</v>
+        <v>1262.751521386272</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>1041.958942242742</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1689.318139675982</v>
+        <v>1381.278680221567</v>
       </c>
       <c r="C11" t="n">
-        <v>1320.35562273557</v>
+        <v>1012.316163281155</v>
       </c>
       <c r="D11" t="n">
-        <v>1320.35562273557</v>
+        <v>909.3697179459625</v>
       </c>
       <c r="E11" t="n">
-        <v>934.5673701373257</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="F11" t="n">
         <v>523.5814653477182</v>
@@ -5069,22 +5071,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2158.0178522615</v>
       </c>
       <c r="Y11" t="n">
-        <v>1698.509627919559</v>
+        <v>1767.878520285688</v>
       </c>
     </row>
     <row r="12">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>460.171619808316</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C13" t="n">
-        <v>460.171619808316</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H13" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I13" t="n">
         <v>66.5121164321834</v>
@@ -5221,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.011591242373</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1169.327103036486</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>879.9099329995254</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>862.6126637820859</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>641.8200846385557</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5252,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1976.204921733553</v>
+        <v>1144.044138553435</v>
       </c>
       <c r="C14" t="n">
-        <v>1976.204921733553</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="D14" t="n">
-        <v>1617.939223126803</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="E14" t="n">
-        <v>1232.150970528558</v>
+        <v>775.0816216130238</v>
       </c>
       <c r="F14" t="n">
-        <v>821.1650657389509</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G14" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5285,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5300,28 +5302,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2071.975386180638</v>
+        <v>1920.783310593369</v>
       </c>
       <c r="Y14" t="n">
-        <v>2071.975386180638</v>
+        <v>1530.643978617557</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
         <v>160.1893859228007</v>
@@ -5361,7 +5363,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5388,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5397,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5479,7 +5481,7 @@
         <v>362.8175152271517</v>
       </c>
       <c r="Y16" t="n">
-        <v>163.837793613838</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C17" t="n">
-        <v>1308.370295943747</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D17" t="n">
-        <v>1308.370295943747</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E17" t="n">
         <v>1232.150970528558</v>
@@ -5510,16 +5512,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001389</v>
@@ -5537,28 +5539,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U17" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.509627919559</v>
+        <v>2403.038273524209</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943747</v>
+        <v>2403.038273524209</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5570,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
         <v>765.1517452158132</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>788.4062285743621</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="C19" t="n">
-        <v>788.4062285743621</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="D19" t="n">
-        <v>638.2895891620263</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="E19" t="n">
-        <v>490.3764955796332</v>
+        <v>463.6594280995014</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>316.769480601591</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>149.06664397631</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>149.06664397631</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5698,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T19" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U19" t="n">
-        <v>1224.739181610489</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V19" t="n">
-        <v>970.0546934046018</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W19" t="n">
-        <v>970.0546934046018</v>
+        <v>1094.090022971289</v>
       </c>
       <c r="X19" t="n">
-        <v>970.0546934046018</v>
+        <v>866.1004720732712</v>
       </c>
       <c r="Y19" t="n">
-        <v>970.0546934046018</v>
+        <v>645.3078929297411</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2345.167438673965</v>
+        <v>1422.200456328342</v>
       </c>
       <c r="C20" t="n">
-        <v>1976.204921733553</v>
+        <v>1053.23793938793</v>
       </c>
       <c r="D20" t="n">
-        <v>1617.939223126803</v>
+        <v>694.9722407811798</v>
       </c>
       <c r="E20" t="n">
-        <v>1232.150970528558</v>
+        <v>309.1839881829356</v>
       </c>
       <c r="F20" t="n">
-        <v>821.1650657389509</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G20" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810551</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V20" t="n">
-        <v>2755.806928794324</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W20" t="n">
-        <v>2755.806928794324</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X20" t="n">
-        <v>2731.767278738087</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y20" t="n">
-        <v>2731.767278738087</v>
+        <v>1808.800296392464</v>
       </c>
     </row>
     <row r="21">
@@ -5820,22 +5822,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064599</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,7 +5846,7 @@
         <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
         <v>2407.411984886741</v>
@@ -5884,10 +5886,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>941.4970410294717</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C22" t="n">
-        <v>772.5608581015648</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D22" t="n">
         <v>772.5608581015648</v>
@@ -5899,13 +5901,13 @@
         <v>477.7578170212613</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H22" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S22" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T22" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U22" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.927635901259</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.927635901259</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X22" t="n">
-        <v>1343.938085003241</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y22" t="n">
-        <v>1123.145505859711</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796252</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="C23" t="n">
-        <v>835.7637198285415</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="D23" t="n">
-        <v>477.498021221791</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E23" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F23" t="n">
-        <v>66.5121164321834</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G23" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H23" t="n">
         <v>66.5121164321834</v>
@@ -5987,25 +5989,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
         <v>3266.588755052368</v>
@@ -6032,7 +6034,7 @@
         <v>1698.509627919559</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943747</v>
+        <v>1575.942324366272</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G24" t="n">
         <v>176.0213023927779</v>
@@ -6072,40 +6074,40 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>697.9541770656748</v>
+        <v>2405.758056700422</v>
       </c>
       <c r="C25" t="n">
-        <v>529.0179941377679</v>
+        <v>2236.821873772515</v>
       </c>
       <c r="D25" t="n">
-        <v>529.0179941377679</v>
+        <v>2086.705234360179</v>
       </c>
       <c r="E25" t="n">
-        <v>381.1049005553748</v>
+        <v>1938.792140777786</v>
       </c>
       <c r="F25" t="n">
-        <v>234.2149530574644</v>
+        <v>1791.902193279876</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>1624.199356654595</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>1477.982169872453</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J25" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K25" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L25" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M25" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N25" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O25" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P25" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R25" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S25" t="n">
-        <v>1735.608663915319</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T25" t="n">
-        <v>1513.842048484845</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U25" t="n">
-        <v>1224.739181610489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V25" t="n">
-        <v>1224.739181610489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W25" t="n">
-        <v>935.322011573528</v>
+        <v>3036.188651572209</v>
       </c>
       <c r="X25" t="n">
-        <v>935.322011573528</v>
+        <v>2808.199100674192</v>
       </c>
       <c r="Y25" t="n">
-        <v>714.5294324299979</v>
+        <v>2587.406521530662</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1208.812782134349</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C26" t="n">
-        <v>839.8502651939375</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D26" t="n">
-        <v>481.5845665871869</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E26" t="n">
-        <v>481.5845665871869</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
         <v>1040.244834329464</v>
@@ -6254,22 +6256,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3296.379731775211</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3042.849255049048</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2711.786367705477</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2359.017712435363</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X26" t="n">
-        <v>1985.551954174283</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="Y26" t="n">
-        <v>1595.412622198471</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>624.6477645191717</v>
+        <v>549.3683227675135</v>
       </c>
       <c r="C28" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D28" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E28" t="n">
-        <v>624.6477645191717</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F28" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G28" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H28" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
         <v>66.5121164321834</v>
@@ -6406,28 +6408,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T28" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U28" t="n">
-        <v>1134.908724368016</v>
+        <v>1723.900575882148</v>
       </c>
       <c r="V28" t="n">
-        <v>880.2242361621296</v>
+        <v>1469.216087676261</v>
       </c>
       <c r="W28" t="n">
-        <v>845.4403436627018</v>
+        <v>1179.798917639301</v>
       </c>
       <c r="X28" t="n">
-        <v>845.4403436627018</v>
+        <v>951.8093667412834</v>
       </c>
       <c r="Y28" t="n">
-        <v>624.6477645191717</v>
+        <v>731.0167875977533</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1491.569348694472</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1122.60683175406</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>764.3411331473096</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6464,13 +6466,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6488,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T29" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U29" t="n">
-        <v>2961.784676410101</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V29" t="n">
-        <v>2961.784676410101</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W29" t="n">
-        <v>2609.016021139987</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X29" t="n">
-        <v>2235.550262878907</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y29" t="n">
-        <v>2047.583838282732</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>380.4321398396066</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F31" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G31" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H31" t="n">
         <v>66.5121164321834</v>
@@ -6643,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.464090846021</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="S31" t="n">
-        <v>1656.195859530815</v>
+        <v>1920.850034779555</v>
       </c>
       <c r="T31" t="n">
-        <v>1434.429244100341</v>
+        <v>1699.083419349081</v>
       </c>
       <c r="U31" t="n">
-        <v>1145.326377225984</v>
+        <v>1409.980552474725</v>
       </c>
       <c r="V31" t="n">
-        <v>890.6418890200973</v>
+        <v>1155.296064268838</v>
       </c>
       <c r="W31" t="n">
-        <v>601.2247189831368</v>
+        <v>865.8788942318774</v>
       </c>
       <c r="X31" t="n">
-        <v>601.2247189831368</v>
+        <v>637.8893433338601</v>
       </c>
       <c r="Y31" t="n">
-        <v>380.4321398396066</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1032.06112435253</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C32" t="n">
-        <v>1032.06112435253</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D32" t="n">
-        <v>673.7954257457798</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E32" t="n">
-        <v>288.0071731475355</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F32" t="n">
-        <v>288.0071731475355</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6701,7 +6703,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6728,22 +6730,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T32" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U32" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V32" t="n">
-        <v>2535.034709923658</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W32" t="n">
-        <v>2182.266054653544</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X32" t="n">
-        <v>1808.800296392464</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y32" t="n">
-        <v>1418.660964416652</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>941.5438544811084</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C33" t="n">
-        <v>767.0908251999814</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D33" t="n">
-        <v>618.1564155387301</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E33" t="n">
-        <v>458.9189605332746</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F33" t="n">
-        <v>312.3844025601596</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G33" t="n">
-        <v>176.0213023927777</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064525</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I33" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J33" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K33" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M33" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068412</v>
       </c>
       <c r="O33" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q33" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R33" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S33" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T33" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U33" t="n">
-        <v>2014.760455431607</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V33" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W33" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X33" t="n">
-        <v>1317.51949026613</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y33" t="n">
-        <v>1109.759191501176</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>362.8175152271517</v>
+        <v>2176.004930555061</v>
       </c>
       <c r="C34" t="n">
-        <v>360.6423967967187</v>
+        <v>2007.068747627154</v>
       </c>
       <c r="D34" t="n">
-        <v>360.6423967967187</v>
+        <v>1856.952108214819</v>
       </c>
       <c r="E34" t="n">
-        <v>212.7293032143256</v>
+        <v>1709.039014632426</v>
       </c>
       <c r="F34" t="n">
-        <v>212.7293032143256</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="G34" t="n">
-        <v>212.7293032143256</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H34" t="n">
-        <v>66.5121164321834</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I34" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J34" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K34" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L34" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M34" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N34" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O34" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P34" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q34" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T34" t="n">
-        <v>1424.011591242373</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U34" t="n">
-        <v>1134.908724368016</v>
+        <v>3036.502954734814</v>
       </c>
       <c r="V34" t="n">
-        <v>880.2242361621296</v>
+        <v>2781.818466528927</v>
       </c>
       <c r="W34" t="n">
-        <v>590.8070661251691</v>
+        <v>2492.401296491966</v>
       </c>
       <c r="X34" t="n">
-        <v>362.8175152271517</v>
+        <v>2264.411745593949</v>
       </c>
       <c r="Y34" t="n">
-        <v>362.8175152271517</v>
+        <v>2264.411745593949</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1986.901740067214</v>
+        <v>1934.181533884357</v>
       </c>
       <c r="C35" t="n">
-        <v>1617.939223126803</v>
+        <v>1565.219016943946</v>
       </c>
       <c r="D35" t="n">
-        <v>1617.939223126803</v>
+        <v>1206.953318337195</v>
       </c>
       <c r="E35" t="n">
-        <v>1232.150970528558</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="F35" t="n">
         <v>821.1650657389509</v>
@@ -6935,25 +6937,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
         <v>3266.588755052368</v>
@@ -6962,25 +6964,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520487</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520487</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W35" t="n">
-        <v>2656.568750250373</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X35" t="n">
-        <v>2283.102991989293</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y35" t="n">
-        <v>1986.901740067214</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="36">
@@ -7014,7 +7016,7 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031477</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>848.0708164780106</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="C37" t="n">
-        <v>679.1346335501037</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D37" t="n">
-        <v>529.0179941377679</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E37" t="n">
-        <v>381.1049005553748</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F37" t="n">
-        <v>234.2149530574644</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G37" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H37" t="n">
-        <v>66.5121164321834</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I37" t="n">
         <v>66.5121164321834</v>
@@ -7123,22 +7125,22 @@
         <v>1927.294548088493</v>
       </c>
       <c r="T37" t="n">
-        <v>1927.294548088493</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U37" t="n">
-        <v>1927.294548088493</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V37" t="n">
-        <v>1767.918581386758</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W37" t="n">
-        <v>1478.501411349798</v>
+        <v>872.3234075408147</v>
       </c>
       <c r="X37" t="n">
-        <v>1250.51186045178</v>
+        <v>644.3338566427974</v>
       </c>
       <c r="Y37" t="n">
-        <v>1029.71928130825</v>
+        <v>644.3338566427974</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C38" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
         <v>66.5121164321834</v>
@@ -7181,7 +7183,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7199,25 +7201,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>3177.09166559278</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2824.323010322666</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="39">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.4482993600903</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="C40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="D40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="E40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="F40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="G40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I40" t="n">
-        <v>66.5121164321834</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J40" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L40" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N40" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O40" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P40" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>3150.225125372326</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>2928.458509941852</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>2639.355643067495</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621296</v>
+        <v>2384.671154861609</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251691</v>
+        <v>2095.253984824648</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271517</v>
+        <v>1867.26443392663</v>
       </c>
       <c r="Y40" t="n">
-        <v>362.8175152271517</v>
+        <v>1646.4718547831</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7445,16 +7447,16 @@
         <v>3325.60582160917</v>
       </c>
       <c r="V41" t="n">
-        <v>3150.294826486578</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>827.064395508012</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986294</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U42" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X42" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y42" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="43">
@@ -7543,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1091.613680441807</v>
+        <v>646.6939999491682</v>
       </c>
       <c r="C43" t="n">
-        <v>922.6774975139006</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F43" t="n">
         <v>477.7578170212613</v>
@@ -7591,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1855.644631732273</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1855.644631732273</v>
       </c>
       <c r="T43" t="n">
-        <v>1645.778206672847</v>
+        <v>1855.644631732273</v>
       </c>
       <c r="U43" t="n">
-        <v>1356.675339798491</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="V43" t="n">
-        <v>1356.675339798491</v>
+        <v>1566.541764857916</v>
       </c>
       <c r="W43" t="n">
-        <v>1091.613680441807</v>
+        <v>1277.124594820955</v>
       </c>
       <c r="X43" t="n">
-        <v>1091.613680441807</v>
+        <v>1049.135043922938</v>
       </c>
       <c r="Y43" t="n">
-        <v>1091.613680441807</v>
+        <v>828.3424647794079</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1032.06112435253</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C44" t="n">
-        <v>663.0986074121186</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D44" t="n">
-        <v>304.832908805368</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E44" t="n">
-        <v>304.832908805368</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G44" t="n">
         <v>66.5121164321834</v>
@@ -7646,25 +7648,25 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912079</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810543</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q44" t="n">
         <v>3266.588755052368</v>
@@ -7676,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993392</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2535.034709923658</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2182.266054653544</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>1808.800296392464</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y44" t="n">
-        <v>1418.660964416652</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="45">
@@ -7725,13 +7727,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>530.2513404403937</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C46" t="n">
-        <v>361.3151575124868</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D46" t="n">
-        <v>361.3151575124868</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>213.4020639300938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
         <v>66.5121164321834</v>
@@ -7831,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U46" t="n">
-        <v>1224.739181610489</v>
+        <v>1708.010285469454</v>
       </c>
       <c r="V46" t="n">
-        <v>970.0546934046018</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W46" t="n">
-        <v>680.6375233676413</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X46" t="n">
-        <v>680.6375233676413</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y46" t="n">
-        <v>530.2513404403937</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>158.4830491584147</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,7 +8072,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>247.8126877821575</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -8079,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>31.66886087721423</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8137,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>178.5096609094456</v>
+        <v>171.4142040457084</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>75.41988959484672</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8237,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761162</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418308</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>51.53815565544053</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>45.7835134358323</v>
       </c>
       <c r="Q6" t="n">
-        <v>186.4490126143853</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>56.2746049302076</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>115.4087252763826</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>200.1003545949129</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G2" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H2" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>78.1636065770829</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>11.36529914368134</v>
       </c>
       <c r="S2" t="n">
-        <v>130.8133087092504</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22623,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>134.8788344114332</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>26.17372043046388</v>
+        <v>48.77881175550657</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22674,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>11.50893333199741</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310532</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>64.16939599459965</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>18.24739803715752</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22702,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22717,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.4515011109318</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>148.5398113612452</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I4" t="n">
-        <v>109.1541654470835</v>
+        <v>102.6181204308044</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.43375830553084</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>108.0728512656385</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S4" t="n">
-        <v>197.1876907596158</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>38.1840682227172</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.15929202617698</v>
+        <v>31.05906618577484</v>
       </c>
     </row>
     <row r="5">
@@ -22784,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917687</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>143.1621657402054</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>180.5549891403834</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.2897156032233</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>280.7757647072709</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22866,16 +22868,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527771</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>122.3726455427552</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22942,22 +22944,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>72.95167541766722</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>57.14655128500732</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -22993,13 +22995,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>199.5272016498744</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23036,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.1636065770829</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,19 +23071,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>74.44654320283618</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23151,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23163,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>201.0899236805583</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23176,16 +23178,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>74.47544162172413</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
-        <v>183.1587220330682</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>373.6342683023394</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>252.7660607388424</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23309,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23324,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23431,10 +23433,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.585358863772</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>287.9210818608662</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23558,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>220.0509458470713</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>105.0742887270135</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23671,7 +23673,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21.59472895491427</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>325.4417151617389</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>306.4732379112248</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23789,16 +23791,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23893,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>132.928556250143</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14.6234381411528</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23940,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23978,16 +23980,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>166.6308927084668</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24026,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>345.9318471227945</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24130,7 +24132,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>208.805502204683</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>280.1262230804348</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>264.8963081382994</v>
       </c>
     </row>
     <row r="24">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.4224773712575</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>83.32522828944201</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,13 +24414,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24449,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>174.984141204001</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,13 +24505,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>377.0852116427184</v>
       </c>
     </row>
     <row r="27">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24610,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>84.85180572133191</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>252.0869447621575</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24686,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>14.67876349279896</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24746,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>200.1511783058403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24835,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24850,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>96.35242040983809</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>82.55208449419918</v>
       </c>
       <c r="S31" t="n">
-        <v>10.31347632938787</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24901,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24917,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24926,10 +24928,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>191.6416195052549</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24968,13 +24970,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>97.9556892659979</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>92.30923329343864</v>
       </c>
       <c r="C34" t="n">
-        <v>165.0934538524992</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25151,19 +25153,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>137.1301661019863</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>92.99869925319575</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>132.0262023876709</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25365,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25403,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>166.0767174715699</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25546,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>53.73645647354653</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25631,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25640,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>106.0018201581684</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25685,13 +25687,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>154.1943732987689</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25783,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>17.99873547738926</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -25846,13 +25848,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>24.11195557347452</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>170.9384612922587</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
@@ -25916,13 +25918,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26071,13 +26073,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>69.12041821276446</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>69.70233225411974</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>718396.6610026545</v>
+        <v>463673.9492869357</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786603.5371079207</v>
+        <v>526021.0465876195</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>863471.7387975238</v>
+        <v>718396.6610026542</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975233</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863471.7387975233</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="15">
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279547.2423401896</v>
+        <v>180441.6164408227</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>203966.5811971123</v>
       </c>
       <c r="D2" t="n">
-        <v>340997.0989709205</v>
+        <v>279547.2423401897</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="F2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="K2" t="n">
         <v>340997.0989709206</v>
@@ -26344,13 +26346,13 @@
         <v>340997.0989709204</v>
       </c>
       <c r="M2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
         <v>340997.0989709204</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
         <v>340997.0989709204</v>
@@ -26363,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1004321.885230094</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>104983.4505300429</v>
+        <v>84336.10254477395</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403379</v>
+        <v>291724.1809599835</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>276030.7457669092</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>141841.1257376604</v>
+        <v>49064.94472854461</v>
       </c>
       <c r="K3" t="n">
-        <v>25342.99488522345</v>
+        <v>19608.42855040618</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819074</v>
+        <v>70460.80690932037</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>72091.35261608596</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>12732.5212819199</v>
+      </c>
+      <c r="C4" t="n">
+        <v>16333.27348544816</v>
+      </c>
+      <c r="D4" t="n">
         <v>19973.84716017453</v>
-      </c>
-      <c r="C4" t="n">
-        <v>22196.27613594852</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11600.2349971284</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>56985.80041161358</v>
+      </c>
+      <c r="C5" t="n">
+        <v>63047.80320426619</v>
+      </c>
+      <c r="D5" t="n">
         <v>85199.0818558723</v>
-      </c>
-      <c r="C5" t="n">
-        <v>92937.7724398447</v>
-      </c>
-      <c r="D5" t="n">
-        <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="F5" t="n">
+        <v>74306.3405613933</v>
+      </c>
+      <c r="G5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="G5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
         <v>74306.34056139328</v>
@@ -26519,46 +26521,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829947.5719059515</v>
+        <v>-480633.6077735562</v>
       </c>
       <c r="C6" t="n">
-        <v>85854.13138847257</v>
+        <v>40249.401962624</v>
       </c>
       <c r="D6" t="n">
-        <v>28835.7829720609</v>
+        <v>-117349.8676358406</v>
       </c>
       <c r="E6" t="n">
-        <v>255090.5234123989</v>
+        <v>-20940.22235451046</v>
       </c>
       <c r="F6" t="n">
         <v>255090.5234123988</v>
       </c>
       <c r="G6" t="n">
+        <v>255090.5234123989</v>
+      </c>
+      <c r="H6" t="n">
         <v>255090.5234123988</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>255090.5234123989</v>
       </c>
-      <c r="I6" t="n">
-        <v>255090.523412399</v>
-      </c>
       <c r="J6" t="n">
-        <v>113249.3976747383</v>
+        <v>206025.5786838543</v>
       </c>
       <c r="K6" t="n">
-        <v>229747.5285271755</v>
+        <v>235482.0948619928</v>
       </c>
       <c r="L6" t="n">
-        <v>206796.553404208</v>
+        <v>184629.7165030784</v>
       </c>
       <c r="M6" t="n">
-        <v>255090.523412399</v>
+        <v>182999.1707963129</v>
       </c>
       <c r="N6" t="n">
+        <v>255090.5234123986</v>
+      </c>
+      <c r="O6" t="n">
         <v>255090.5234123988</v>
-      </c>
-      <c r="O6" t="n">
-        <v>255090.5234123987</v>
       </c>
       <c r="P6" t="n">
         <v>255090.5234123988</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>548.4699409129046</v>
+      </c>
+      <c r="C3" t="n">
+        <v>614.055013769478</v>
+      </c>
+      <c r="D3" t="n">
         <v>853.7106645376848</v>
-      </c>
-      <c r="C3" t="n">
-        <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>187.52558716632</v>
+      </c>
+      <c r="C4" t="n">
+        <v>263.7138800015061</v>
+      </c>
+      <c r="D4" t="n">
         <v>542.1149567261639</v>
-      </c>
-      <c r="C4" t="n">
-        <v>640.5848321000389</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="G4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022926</v>
-      </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
         <v>831.4014554022925</v>
@@ -26957,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>853.7106645376848</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>80.35422757985441</v>
+        <v>65.58507285657345</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757591</v>
+        <v>239.6556507682068</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>236.0660360556135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>98.46987537387497</v>
+        <v>76.18829283518613</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022539</v>
+        <v>278.4010767246578</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>289.2864986761286</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387497</v>
+        <v>76.18829283518613</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>278.4010767246578</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>542.1149567261639</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>98.46987537387497</v>
+        <v>76.18829283518613</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022539</v>
+        <v>278.4010767246578</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>289.2864986761286</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.432002671508278</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>35.14799735958416</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>132.312282993323</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>291.286936740926</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>436.5636098258715</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>541.5957615840431</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>602.6296390934783</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>612.3808166839013</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>578.2538401190908</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>493.5262741662302</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>370.6176784928398</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>78.20676087699496</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>15.02359169452749</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.836283316175398</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>17.73463097464134</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>63.2229124209512</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>173.4885040076063</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>296.5194861913579</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>398.7070419616801</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>465.2723121730381</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>477.5866858152847</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>436.8985133884509</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>350.6495746475634</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>234.3999545349508</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>114.0106430867497</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>34.10815721053861</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>7.40151038405785</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.539478247526972</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>13.68736114619436</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>46.29630948017478</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>178.8593818490428</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>228.8784296368737</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>241.3202129282508</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>235.582157642014</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>217.5982526595398</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>186.1928964099894</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.9103103451904</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>69.22054011153094</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>26.82890727735641</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>6.577770693978881</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425035</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649915</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350877</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016251</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>389.5577350167916</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>433.458039945929</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.471844198683</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465205</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>56.25237638702305</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>45.47482884990946</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458303</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542724</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825178</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736542</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944812</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020919</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.845013171582785</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>33.29990140244973</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779065</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.5762393840509</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734693</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919118</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350553</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715649</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.06039885381339134</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.432002671508278</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>35.14799735958416</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>132.312282993323</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>291.286936740926</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>436.5636098258715</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>541.5957615840431</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>602.6296390934783</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>612.3808166839013</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>578.2538401190908</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>493.5262741662302</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>370.6176784928398</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>215.5855378141321</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>78.20676087699496</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>15.02359169452749</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.2745602137206622</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>17.73463097464134</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>63.2229124209512</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>173.4885040076063</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>296.5194861913579</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>398.7070419616801</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>465.2723121730381</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>477.5866858152847</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>436.8985133884509</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>350.6495746475634</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>234.3999545349508</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>114.0106430867497</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>34.10815721053861</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>7.40151038405785</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1208081129062762</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.539478247526972</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>13.68736114619436</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>46.29630948017478</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>228.8784296368737</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>235.582157642014</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>217.5982526595398</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>186.1928964099894</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>128.9103103451904</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>69.22054011153094</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>26.82890727735641</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>6.577770693978881</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.08397154077419859</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32257,7 +32259,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563564</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
         <v>99.83230779806951</v>
@@ -32482,7 +32484,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095016</v>
       </c>
       <c r="O20" t="n">
         <v>738.1512123099059</v>
@@ -32798,7 +32800,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O24" t="n">
         <v>557.708647897025</v>
@@ -33023,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33269,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33512,7 +33514,7 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002927</v>
@@ -33655,7 +33657,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
         <v>557.281137600381</v>
@@ -33676,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781681</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -33734,10 +33736,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138796</v>
@@ -33916,7 +33918,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.198736356356</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
         <v>99.83230779806951</v>
@@ -33989,7 +33991,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34217,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34366,7 +34368,7 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953979</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
         <v>557.281137600381</v>
@@ -34445,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>110.2410322142397</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>216.4737587808909</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>305.8293466140559</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>372.2834058662056</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>382.9677530873104</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>348.155628697404</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>262.2932784109606</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>148.3119886183904</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>46.65087734093964</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>158.6780472169989</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>418.6357113402206</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>323.1382782510198</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>346.2449737319514</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>542.1149567261639</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>216.6751672332332</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>94.41818044892926</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.48193198348417</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>156.5898900231599</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>256.4684548971899</v>
+        <v>174.6339172880152</v>
       </c>
       <c r="M4" t="n">
-        <v>280.9040898900913</v>
+        <v>187.52558716632</v>
       </c>
       <c r="N4" t="n">
-        <v>279.7143300212426</v>
+        <v>99.08507489005498</v>
       </c>
       <c r="O4" t="n">
-        <v>242.1833805735795</v>
+        <v>164.382023673283</v>
       </c>
       <c r="P4" t="n">
-        <v>183.4714556748829</v>
+        <v>116.8989542469472</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.74826709349601</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.470283312177</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664455</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>153.7913200468043</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>203.1118067186563</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.058780602092</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>185.826860744151</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716376</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117347</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>75.43840481763038</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>148.2266905659561</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>164.0235134695732</v>
       </c>
       <c r="Q6" t="n">
-        <v>302.9297349452399</v>
+        <v>28.61687799649633</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966405</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458915</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.5811567526979</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>6.560263827496797</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>110.2410322142397</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>216.4737587808909</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>305.8293466140559</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>372.2834058662056</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>382.9677530873104</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>348.155628697404</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>262.2932784109606</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>148.3119886183904</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>172.7419126813485</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>158.6780472169989</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>260.1526621818059</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>323.1382782510198</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>402.519578662159</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>294.3022689440064</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>216.6751672332332</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>304.4954681847784</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>13.85280893410659</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>15.48193198348417</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>156.5898900231599</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>256.4684548971899</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>280.9040898900913</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>279.7143300212426</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>242.1833805735795</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>183.4714556748829</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>42.74826709349601</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222434</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36130,7 +36132,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129106</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36446,7 +36448,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O24" t="n">
         <v>415.1124034525806</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37160,7 +37162,7 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554005</v>
@@ -37324,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037185</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37382,10 +37384,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340054</v>
@@ -37564,7 +37566,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222388</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37865,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687116</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554005</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597693</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698340.3979660786</v>
+        <v>659112.7680133599</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12477039.73816156</v>
+        <v>12441881.51229507</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7009463.23176477</v>
+        <v>5567936.647039155</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9126030.188353421</v>
+        <v>9832267.361990418</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>165.1725371760946</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>187.52558716632</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>299.2692030480106</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>138.2613113589522</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V3" t="n">
-        <v>187.52558716632</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773045</v>
       </c>
     </row>
     <row r="4">
@@ -819,13 +819,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>23.08909934006222</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>239.3135884893127</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>187.52558716632</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.52558716632</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015061</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.7138800015061</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>232.2791855053266</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>44.4496093100216</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -980,22 +980,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150561</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1025,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>129.3223376181645</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,22 +1062,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>89.28741136156185</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248086</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888212</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>50.16463037378301</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>183.2066400136062</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,13 +1141,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>63.21235679059542</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>410.9338715566937</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.464536558263</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9711388310543</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.9961436311612</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>135.0059677968616</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>89.65963851412519</v>
       </c>
       <c r="I9" t="n">
-        <v>26.17372043046388</v>
+        <v>8.915218264396685</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>128.264216864854</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>190.7427643629146</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>225.7875959384519</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1277,7 +1277,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>4.68306152291919</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>71.95852102484504</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>107.8531707337069</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>89.17712508496183</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.8639731922165</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>219.5722280944081</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2121353820159</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>101.9169808818406</v>
+        <v>57.92556443677338</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.6898441249713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>153.879672974211</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1612,19 +1612,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>6.435410414717246</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1666,13 +1666,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>149.6801548313977</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>74.7576914549238</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>131.3542190999263</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>57.29212650174169</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
@@ -1903,13 +1903,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>132.9334817716963</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2007,22 +2007,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>81.72898226868529</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,19 +2052,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>73.9589705134383</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>240.2451530332447</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>113.2012047494589</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2137,10 +2137,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2149,7 +2149,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>15.4484784967923</v>
       </c>
       <c r="W22" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2320,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>318.3245589157061</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,10 +2383,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>121.3416305177542</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>13.02719212039609</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2572,10 +2572,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>251.6719641693171</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>9.152727013335143</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>203.4068132192031</v>
       </c>
       <c r="U28" t="n">
-        <v>201.360032484281</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2800,16 +2800,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>396.2429621606545</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>35.42676599590794</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.380068175848154</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>131.5730391207954</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>260.8767548402199</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>229.796569204137</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.52274688849866</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>84.69473660442821</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>245.6036755614943</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3277,16 +3277,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>58.92805047992164</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>35.22061871095692</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>209.5394763509157</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,19 +3553,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>26.30878201733263</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>173.626889274476</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>191.5688429199806</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3754,10 +3754,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>304.919905495285</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3796,16 +3796,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>195.0465954186442</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>70.93341719265807</v>
+        <v>53.82704427691645</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -3991,13 +3991,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>229.7965692041367</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,13 +4033,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>153.4696656457197</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>87.38003424864942</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>217.0914199928484</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>750.1023486652798</v>
+        <v>1632.391467686597</v>
       </c>
       <c r="C2" t="n">
-        <v>583.26140202276</v>
+        <v>1632.391467686597</v>
       </c>
       <c r="D2" t="n">
-        <v>393.8416170062752</v>
+        <v>1632.391467686597</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897904</v>
+        <v>1246.603215088353</v>
       </c>
       <c r="F2" t="n">
-        <v>15.0020469733056</v>
+        <v>835.6173102987457</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>419.9125600230345</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644754</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123828</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020266</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652798</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652798</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>750.1023486652798</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>750.1023486652798</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U2" t="n">
-        <v>750.1023486652798</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="V2" t="n">
-        <v>750.1023486652798</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="W2" t="n">
-        <v>750.1023486652798</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="X2" t="n">
-        <v>750.1023486652798</v>
+        <v>2022.530799662409</v>
       </c>
       <c r="Y2" t="n">
-        <v>750.1023486652798</v>
+        <v>1632.391467686597</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.0020469733056</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C3" t="n">
-        <v>15.0020469733056</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D3" t="n">
-        <v>15.0020469733056</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>15.0020469733056</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024242</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>183.554828077265</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476351</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017064</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652798</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>722.9192922843279</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>583.26140202276</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>583.26140202276</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>583.26140202276</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
-        <v>393.8416170062752</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897904</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>15.0020469733056</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.0020469733056</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.2374631214181</v>
+        <v>220.18296949591</v>
       </c>
       <c r="C4" t="n">
-        <v>186.2374631214181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D4" t="n">
-        <v>186.2374631214181</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E4" t="n">
-        <v>38.32436953902501</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>38.32436953902501</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>38.32436953902501</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>38.32436953902501</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830974</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
-        <v>471.6341805242519</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>634.372383960802</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652798</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846275</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>746.7254979846275</v>
+        <v>1394.715222610545</v>
       </c>
       <c r="V4" t="n">
-        <v>746.7254979846275</v>
+        <v>1140.030734404658</v>
       </c>
       <c r="W4" t="n">
-        <v>746.7254979846275</v>
+        <v>850.6135643676972</v>
       </c>
       <c r="X4" t="n">
-        <v>557.3057129681426</v>
+        <v>622.6240134696799</v>
       </c>
       <c r="Y4" t="n">
-        <v>367.8859279516578</v>
+        <v>401.8314343261497</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1054.855520006024</v>
+        <v>1671.539306344596</v>
       </c>
       <c r="C5" t="n">
-        <v>1054.855520006024</v>
+        <v>1302.576789404184</v>
       </c>
       <c r="D5" t="n">
-        <v>788.4778634388465</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="E5" t="n">
-        <v>522.1002068716687</v>
+        <v>944.3110907974335</v>
       </c>
       <c r="F5" t="n">
-        <v>255.7225503044908</v>
+        <v>533.3251860078259</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
-        <v>21.09711040012049</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>49.2826908791767</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052547</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>294.517494751591</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030607</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991318</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358413</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601763</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006024</v>
+        <v>2392.741525663978</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006024</v>
+        <v>2392.741525663978</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006024</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="W5" t="n">
-        <v>1054.855520006024</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="X5" t="n">
-        <v>1054.855520006024</v>
+        <v>2061.678638320407</v>
       </c>
       <c r="Y5" t="n">
-        <v>1054.855520006024</v>
+        <v>1671.539306344596</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>340.3997601587378</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776108</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776108</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776108</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776108</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776108</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749989</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>21.09711040012049</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>21.09711040012049</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957456</v>
+        <v>560.1394111735141</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298711</v>
+        <v>1117.223096727985</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263948</v>
+        <v>1480.485115687206</v>
       </c>
       <c r="N6" t="n">
-        <v>694.2029851278858</v>
+        <v>1867.770244284151</v>
       </c>
       <c r="O6" t="n">
-        <v>864.1415324546155</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P6" t="n">
-        <v>1026.524810789493</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006024</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006024</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1054.855520006024</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>924.2268961492925</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>716.3753959437597</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
-        <v>508.6150971788058</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>719.2759572512186</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="C7" t="n">
-        <v>719.2759572512186</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="D7" t="n">
-        <v>719.2759572512186</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="E7" t="n">
-        <v>629.0866528456006</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>482.1967053476902</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>313.6273447026937</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>159.7059716361717</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434486</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>21.09711040012049</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551008</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375333</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227042</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075538</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1048.360858816802</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1054.855520006024</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407072</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512186</v>
+        <v>1483.191369778178</v>
       </c>
       <c r="T7" t="n">
-        <v>719.2759572512186</v>
+        <v>1260.212888972913</v>
       </c>
       <c r="U7" t="n">
-        <v>719.2759572512186</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="V7" t="n">
-        <v>719.2759572512186</v>
+        <v>971.0945514767509</v>
       </c>
       <c r="W7" t="n">
-        <v>719.2759572512186</v>
+        <v>681.6773814397902</v>
       </c>
       <c r="X7" t="n">
-        <v>719.2759572512186</v>
+        <v>453.6878305417729</v>
       </c>
       <c r="Y7" t="n">
-        <v>719.2759572512186</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1983.4026147697</v>
+        <v>1683.36562607547</v>
       </c>
       <c r="C8" t="n">
-        <v>1614.440097829288</v>
+        <v>1314.403109135058</v>
       </c>
       <c r="D8" t="n">
-        <v>1256.174399222538</v>
+        <v>956.137410528308</v>
       </c>
       <c r="E8" t="n">
-        <v>870.3861466242934</v>
+        <v>892.2865450832621</v>
       </c>
       <c r="F8" t="n">
-        <v>459.4002418346859</v>
+        <v>481.3006402936545</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809311</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809311</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809311</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>254.0744928369595</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>586.3643121319017</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711869</v>
+        <v>1035.50097790098</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1566.921495383894</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>2111.554760801559</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>2612.501248106872</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>3005.546484356407</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904656</v>
+        <v>3252.53434141264</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904656</v>
+        <v>3310.796077475971</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904656</v>
+        <v>3200.225838528231</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904656</v>
+        <v>2994.194385163529</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904656</v>
+        <v>2740.662926950235</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904656</v>
+        <v>2409.600039606664</v>
       </c>
       <c r="W8" t="n">
-        <v>2168.459826904656</v>
+        <v>2056.83138433655</v>
       </c>
       <c r="X8" t="n">
-        <v>2168.459826904656</v>
+        <v>1683.36562607547</v>
       </c>
       <c r="Y8" t="n">
-        <v>2168.459826904656</v>
+        <v>1683.36562607547</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.2981106200058</v>
+        <v>931.3156003142894</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8450813388788</v>
+        <v>756.8625710331625</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9106716776275</v>
+        <v>607.9281613719111</v>
       </c>
       <c r="E9" t="n">
-        <v>448.673216672172</v>
+        <v>448.6907063664555</v>
       </c>
       <c r="F9" t="n">
-        <v>302.138658699057</v>
+        <v>302.1561483933406</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2626649141729</v>
+        <v>165.7864839520668</v>
       </c>
       <c r="H9" t="n">
-        <v>69.80729798300612</v>
+        <v>75.22119252365748</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809311</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J9" t="n">
-        <v>214.3836900926281</v>
+        <v>159.2853526912741</v>
       </c>
       <c r="K9" t="n">
-        <v>371.4749568374571</v>
+        <v>396.510659118347</v>
       </c>
       <c r="L9" t="n">
-        <v>629.0260923974449</v>
+        <v>761.8119001858311</v>
       </c>
       <c r="M9" t="n">
-        <v>948.9329878659546</v>
+        <v>1207.458086537445</v>
       </c>
       <c r="N9" t="n">
-        <v>1347.427370741492</v>
+        <v>1679.307846295919</v>
       </c>
       <c r="O9" t="n">
-        <v>1638.786616996058</v>
+        <v>2088.738397943176</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.295032556959</v>
+        <v>2398.009445431869</v>
       </c>
       <c r="Q9" t="n">
-        <v>2154.74554605989</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="R9" t="n">
-        <v>2168.459826904656</v>
+        <v>2554.82975395794</v>
       </c>
       <c r="S9" t="n">
-        <v>2029.495166406374</v>
+        <v>2425.269938942936</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.495166406374</v>
+        <v>2232.600479990497</v>
       </c>
       <c r="U9" t="n">
-        <v>1801.393576539638</v>
+        <v>2004.532201264788</v>
       </c>
       <c r="V9" t="n">
-        <v>1566.241468307895</v>
+        <v>1769.380093033046</v>
       </c>
       <c r="W9" t="n">
-        <v>1312.004111579693</v>
+        <v>1515.142736304844</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.273746405028</v>
+        <v>1307.291236099311</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.513447640074</v>
+        <v>1099.530937334358</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>860.3104774125019</v>
+        <v>175.1585182502335</v>
       </c>
       <c r="C10" t="n">
-        <v>691.374294484595</v>
+        <v>175.1585182502335</v>
       </c>
       <c r="D10" t="n">
-        <v>691.374294484595</v>
+        <v>175.1585182502335</v>
       </c>
       <c r="E10" t="n">
-        <v>618.6889197120242</v>
+        <v>175.1585182502335</v>
       </c>
       <c r="F10" t="n">
-        <v>471.7989722141139</v>
+        <v>175.1585182502335</v>
       </c>
       <c r="G10" t="n">
-        <v>303.6661428091322</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="H10" t="n">
-        <v>153.6259293129249</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809311</v>
+        <v>66.21592154951942</v>
       </c>
       <c r="J10" t="n">
-        <v>58.69630920174244</v>
+        <v>110.9572157501788</v>
       </c>
       <c r="K10" t="n">
-        <v>213.7203003246708</v>
+        <v>314.3177428179429</v>
       </c>
       <c r="L10" t="n">
-        <v>467.6240706728887</v>
+        <v>630.0756374886839</v>
       </c>
       <c r="M10" t="n">
-        <v>745.7191196640791</v>
+        <v>973.3871879897964</v>
       </c>
       <c r="N10" t="n">
-        <v>1022.636306385109</v>
+        <v>1313.970173580891</v>
       </c>
       <c r="O10" t="n">
-        <v>1262.397853152953</v>
+        <v>1612.537390213391</v>
       </c>
       <c r="P10" t="n">
-        <v>1444.034594271087</v>
+        <v>1844.49254089413</v>
       </c>
       <c r="Q10" t="n">
-        <v>1486.355378693648</v>
+        <v>1921.651183891643</v>
       </c>
       <c r="R10" t="n">
-        <v>1486.355378693648</v>
+        <v>1831.573279765419</v>
       </c>
       <c r="S10" t="n">
-        <v>1486.355378693648</v>
+        <v>1639.79148866217</v>
       </c>
       <c r="T10" t="n">
-        <v>1262.751521386272</v>
+        <v>1418.001359273879</v>
       </c>
       <c r="U10" t="n">
-        <v>1262.751521386272</v>
+        <v>1128.898192221338</v>
       </c>
       <c r="V10" t="n">
-        <v>1262.751521386272</v>
+        <v>874.2137040154511</v>
       </c>
       <c r="W10" t="n">
-        <v>1262.751521386272</v>
+        <v>584.7965339784905</v>
       </c>
       <c r="X10" t="n">
-        <v>1262.751521386272</v>
+        <v>356.8069830804732</v>
       </c>
       <c r="Y10" t="n">
-        <v>1041.958942242742</v>
+        <v>356.8069830804732</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1381.278680221567</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C11" t="n">
-        <v>1012.316163281155</v>
+        <v>552.8079389392149</v>
       </c>
       <c r="D11" t="n">
-        <v>909.3697179459625</v>
+        <v>494.2972677909589</v>
       </c>
       <c r="E11" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="F11" t="n">
-        <v>523.5814653477182</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G11" t="n">
         <v>108.5090151927147</v>
@@ -5038,55 +5038,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T11" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U11" t="n">
-        <v>3215.315153136265</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V11" t="n">
-        <v>2884.252265792694</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W11" t="n">
-        <v>2531.48361052258</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X11" t="n">
-        <v>2158.0178522615</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y11" t="n">
-        <v>1767.878520285688</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
         <v>111.634748879119</v>
@@ -5226,25 +5226,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T13" t="n">
-        <v>1513.842048484845</v>
+        <v>1771.860534983229</v>
       </c>
       <c r="U13" t="n">
-        <v>1224.739181610489</v>
+        <v>1482.757668108873</v>
       </c>
       <c r="V13" t="n">
-        <v>970.0546934046018</v>
+        <v>1228.073179902986</v>
       </c>
       <c r="W13" t="n">
-        <v>680.6375233676413</v>
+        <v>938.656009866025</v>
       </c>
       <c r="X13" t="n">
-        <v>452.6479724696239</v>
+        <v>710.6664589680076</v>
       </c>
       <c r="Y13" t="n">
-        <v>231.8553933260938</v>
+        <v>710.6664589680076</v>
       </c>
     </row>
     <row r="14">
@@ -5254,52 +5254,52 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1144.044138553435</v>
+        <v>1626.299101484277</v>
       </c>
       <c r="C14" t="n">
-        <v>775.0816216130238</v>
+        <v>1257.336584543865</v>
       </c>
       <c r="D14" t="n">
-        <v>775.0816216130238</v>
+        <v>899.070885937115</v>
       </c>
       <c r="E14" t="n">
-        <v>775.0816216130238</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F14" t="n">
-        <v>364.0957168234162</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G14" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O14" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X14" t="n">
-        <v>1920.783310593369</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="Y14" t="n">
-        <v>1530.643978617557</v>
+        <v>2012.898941548399</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218342</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218342</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218342</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218342</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J16" t="n">
         <v>111.634748879119</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V16" t="n">
-        <v>880.2242361621296</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W16" t="n">
-        <v>590.8070661251691</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X16" t="n">
-        <v>362.8175152271517</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y16" t="n">
-        <v>142.0249360836216</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2345.167438673965</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C17" t="n">
-        <v>1976.204921733553</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D17" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E17" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F17" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V17" t="n">
-        <v>2755.806928794324</v>
+        <v>2731.821353053395</v>
       </c>
       <c r="W17" t="n">
-        <v>2403.038273524209</v>
+        <v>2379.052697783281</v>
       </c>
       <c r="X17" t="n">
-        <v>2403.038273524209</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="Y17" t="n">
-        <v>2403.038273524209</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I18" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>463.6594280995014</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C19" t="n">
-        <v>463.6594280995014</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D19" t="n">
-        <v>463.6594280995014</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E19" t="n">
-        <v>463.6594280995014</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F19" t="n">
-        <v>316.769480601591</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G19" t="n">
-        <v>149.06664397631</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H19" t="n">
-        <v>149.06664397631</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I19" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5700,25 +5700,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1660.902633093664</v>
       </c>
       <c r="U19" t="n">
-        <v>1638.191681214136</v>
+        <v>1660.902633093664</v>
       </c>
       <c r="V19" t="n">
-        <v>1383.507193008249</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="W19" t="n">
-        <v>1094.090022971289</v>
+        <v>1406.218144887777</v>
       </c>
       <c r="X19" t="n">
-        <v>866.1004720732712</v>
+        <v>1178.22859398976</v>
       </c>
       <c r="Y19" t="n">
-        <v>645.3078929297411</v>
+        <v>957.4360148462299</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1422.200456328342</v>
+        <v>1616.654488422266</v>
       </c>
       <c r="C20" t="n">
-        <v>1053.23793938793</v>
+        <v>1247.691971481854</v>
       </c>
       <c r="D20" t="n">
-        <v>694.9722407811798</v>
+        <v>889.4262728751035</v>
       </c>
       <c r="E20" t="n">
-        <v>309.1839881829356</v>
+        <v>889.4262728751035</v>
       </c>
       <c r="F20" t="n">
-        <v>66.5121164321834</v>
+        <v>478.4403680854959</v>
       </c>
       <c r="G20" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5764,40 +5764,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993392</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U20" t="n">
-        <v>2866.097597267229</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V20" t="n">
-        <v>2535.034709923658</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W20" t="n">
-        <v>2182.266054653544</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X20" t="n">
-        <v>1808.800296392464</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y20" t="n">
-        <v>1808.800296392464</v>
+        <v>2003.254328486387</v>
       </c>
     </row>
     <row r="21">
@@ -5807,34 +5807,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064599</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
         <v>765.1517452158132</v>
@@ -5843,7 +5843,7 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
         <v>2096.912393410638</v>
@@ -5864,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5873,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5934,28 +5934,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T22" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U22" t="n">
-        <v>1927.294548088493</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V22" t="n">
-        <v>1927.294548088493</v>
+        <v>1119.304200633883</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.044275313594</v>
+        <v>829.8870305969223</v>
       </c>
       <c r="X22" t="n">
-        <v>1494.054724415577</v>
+        <v>601.8974796989049</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.262145272047</v>
+        <v>381.1049005553748</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1575.942324366272</v>
+        <v>2251.634947019675</v>
       </c>
       <c r="C23" t="n">
-        <v>1575.942324366272</v>
+        <v>1882.672430079263</v>
       </c>
       <c r="D23" t="n">
-        <v>1575.942324366272</v>
+        <v>1524.406731472513</v>
       </c>
       <c r="E23" t="n">
-        <v>1190.154071768027</v>
+        <v>1138.618478874268</v>
       </c>
       <c r="F23" t="n">
-        <v>779.1681669784198</v>
+        <v>727.6325740846607</v>
       </c>
       <c r="G23" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H23" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265601</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.509627919559</v>
+        <v>2641.774278995486</v>
       </c>
       <c r="Y23" t="n">
-        <v>1575.942324366272</v>
+        <v>2251.634947019675</v>
       </c>
     </row>
     <row r="24">
@@ -6044,70 +6044,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C24" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D24" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E24" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F24" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L24" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M24" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O24" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S24" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T24" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U24" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V24" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W24" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X24" t="n">
         <v>1317.519490266131</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2405.758056700422</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C25" t="n">
-        <v>2236.821873772515</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D25" t="n">
-        <v>2086.705234360179</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="E25" t="n">
-        <v>1938.792140777786</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="F25" t="n">
-        <v>1791.902193279876</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="G25" t="n">
-        <v>1624.199356654595</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H25" t="n">
-        <v>1477.982169872453</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I25" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J25" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K25" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L25" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M25" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N25" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O25" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P25" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R25" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S25" t="n">
-        <v>3325.60582160917</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T25" t="n">
-        <v>3325.60582160917</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U25" t="n">
-        <v>3325.60582160917</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V25" t="n">
-        <v>3325.60582160917</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W25" t="n">
-        <v>3036.188651572209</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X25" t="n">
-        <v>2808.199100674192</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y25" t="n">
-        <v>2587.406521530662</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2345.167438673965</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C26" t="n">
-        <v>1976.204921733553</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D26" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E26" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F26" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G26" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
         <v>66.5121164321834</v>
@@ -6253,25 +6253,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T26" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U26" t="n">
-        <v>3072.075344883006</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V26" t="n">
-        <v>2741.012457539436</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W26" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="X26" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y26" t="n">
-        <v>2731.767278738087</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="27">
@@ -6305,13 +6305,13 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K27" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>549.3683227675135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>380.4321398396066</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>212.7293032143256</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
         <v>66.5121164321834</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S28" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1927.294548088493</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U28" t="n">
-        <v>1723.900575882148</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V28" t="n">
-        <v>1469.216087676261</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W28" t="n">
-        <v>1179.798917639301</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X28" t="n">
-        <v>951.8093667412834</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y28" t="n">
-        <v>731.0167875977533</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1491.569348694472</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C29" t="n">
-        <v>1122.60683175406</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D29" t="n">
-        <v>764.3411331473096</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E29" t="n">
-        <v>764.3411331473096</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F29" t="n">
-        <v>764.3411331473096</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H29" t="n">
         <v>66.5121164321834</v>
@@ -6466,13 +6466,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
         <v>2120.555556060171</v>
@@ -6490,25 +6490,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S29" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U29" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V29" t="n">
-        <v>2994.542934265599</v>
+        <v>2720.022316677245</v>
       </c>
       <c r="W29" t="n">
-        <v>2641.774278995485</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="X29" t="n">
-        <v>2268.308520734405</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1878.169188758593</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="30">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>235.4482993600903</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C31" t="n">
-        <v>66.5121164321834</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D31" t="n">
-        <v>66.5121164321834</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E31" t="n">
-        <v>66.5121164321834</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F31" t="n">
         <v>66.5121164321834</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R31" t="n">
-        <v>1920.850034779555</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1920.850034779555</v>
+        <v>1794.392488370518</v>
       </c>
       <c r="T31" t="n">
-        <v>1699.083419349081</v>
+        <v>1572.625872940044</v>
       </c>
       <c r="U31" t="n">
-        <v>1409.980552474725</v>
+        <v>1283.523006065687</v>
       </c>
       <c r="V31" t="n">
-        <v>1155.296064268838</v>
+        <v>1028.838517859801</v>
       </c>
       <c r="W31" t="n">
-        <v>865.8788942318774</v>
+        <v>739.4213478228399</v>
       </c>
       <c r="X31" t="n">
-        <v>637.8893433338601</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="Y31" t="n">
-        <v>417.09676419033</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1590.514489367197</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="C32" t="n">
-        <v>1221.551972426786</v>
+        <v>1250.836169983545</v>
       </c>
       <c r="D32" t="n">
-        <v>863.2862738200351</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E32" t="n">
-        <v>477.498021221791</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>66.5121164321834</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
         <v>66.5121164321834</v>
@@ -6700,10 +6700,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6727,25 +6727,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V32" t="n">
-        <v>3093.488074938325</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W32" t="n">
-        <v>2740.71941966821</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X32" t="n">
-        <v>2367.25366140713</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y32" t="n">
-        <v>1977.114329431319</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C33" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D33" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E33" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F33" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G33" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H33" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K33" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L33" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M33" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q33" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R33" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S33" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T33" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U33" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V33" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W33" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X33" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y33" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2176.004930555061</v>
+        <v>152.0623554265553</v>
       </c>
       <c r="C34" t="n">
-        <v>2007.068747627154</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D34" t="n">
-        <v>1856.952108214819</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E34" t="n">
-        <v>1709.039014632426</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H34" t="n">
-        <v>1562.149067134515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>1464.823389952861</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K34" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L34" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M34" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N34" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O34" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P34" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.60582160917</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U34" t="n">
-        <v>3036.502954734814</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V34" t="n">
-        <v>2781.818466528927</v>
+        <v>1071.910120335303</v>
       </c>
       <c r="W34" t="n">
-        <v>2492.401296491966</v>
+        <v>782.4929502983425</v>
       </c>
       <c r="X34" t="n">
-        <v>2264.411745593949</v>
+        <v>554.5033994003252</v>
       </c>
       <c r="Y34" t="n">
-        <v>2264.411745593949</v>
+        <v>333.710820256795</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1934.181533884357</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C35" t="n">
-        <v>1565.219016943946</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D35" t="n">
-        <v>1206.953318337195</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E35" t="n">
-        <v>821.1650657389509</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F35" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3119.628073993392</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U35" t="n">
-        <v>2866.097597267229</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V35" t="n">
-        <v>2535.034709923658</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W35" t="n">
-        <v>2182.266054653544</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X35" t="n">
-        <v>2182.266054653544</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y35" t="n">
-        <v>2182.266054653544</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="36">
@@ -7007,22 +7007,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.3338566427974</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C37" t="n">
-        <v>608.7574741064773</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D37" t="n">
-        <v>458.6408346941415</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E37" t="n">
-        <v>310.7277411117484</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7122,25 +7122,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1705.527932658019</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U37" t="n">
-        <v>1416.425065783662</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>1161.740577577775</v>
+        <v>1302.186011766749</v>
       </c>
       <c r="W37" t="n">
-        <v>872.3234075408147</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X37" t="n">
-        <v>644.3338566427974</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y37" t="n">
-        <v>644.3338566427974</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1822.632236038042</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C38" t="n">
-        <v>1453.669719097631</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D38" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E38" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F38" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
         <v>255.3912473912089</v>
@@ -7183,43 +7183,43 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3325.60582160917</v>
+        <v>3299.031294318936</v>
       </c>
       <c r="T38" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.053546703159</v>
       </c>
       <c r="U38" t="n">
-        <v>3325.60582160917</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="V38" t="n">
-        <v>3325.60582160917</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W38" t="n">
-        <v>2972.837166339056</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X38" t="n">
-        <v>2599.371408077976</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y38" t="n">
-        <v>2209.232076102164</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="39">
@@ -7244,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1464.823389952861</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C40" t="n">
-        <v>1464.823389952861</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O40" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P40" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>3325.60582160917</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S40" t="n">
-        <v>3150.225125372326</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>2928.458509941852</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U40" t="n">
-        <v>2639.355643067495</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V40" t="n">
-        <v>2384.671154861609</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W40" t="n">
-        <v>2095.253984824648</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X40" t="n">
-        <v>1867.26443392663</v>
+        <v>619.069799818289</v>
       </c>
       <c r="Y40" t="n">
-        <v>1646.4718547831</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2196.097994299122</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C41" t="n">
-        <v>1827.13547735871</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D41" t="n">
-        <v>1468.86977875196</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E41" t="n">
-        <v>1083.081526153716</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F41" t="n">
-        <v>672.0956213641082</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G41" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H41" t="n">
         <v>66.5121164321834</v>
@@ -7411,10 +7411,10 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
@@ -7444,19 +7444,19 @@
         <v>3325.60582160917</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3128.589058560035</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339056</v>
+        <v>2797.526171216464</v>
       </c>
       <c r="X41" t="n">
-        <v>2972.837166339056</v>
+        <v>2424.060412955384</v>
       </c>
       <c r="Y41" t="n">
-        <v>2582.697834363244</v>
+        <v>2033.921080979572</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>936.5735814686066</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>827.064395508012</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>920.7416649986294</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y42" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="43">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>646.6939999491682</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="C43" t="n">
-        <v>477.7578170212613</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
         <v>66.5121164321834</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1855.644631732273</v>
+        <v>1872.923796293628</v>
       </c>
       <c r="S43" t="n">
-        <v>1855.644631732273</v>
+        <v>1681.237912120454</v>
       </c>
       <c r="T43" t="n">
-        <v>1855.644631732273</v>
+        <v>1459.47129668998</v>
       </c>
       <c r="U43" t="n">
-        <v>1566.541764857916</v>
+        <v>1170.368429815624</v>
       </c>
       <c r="V43" t="n">
-        <v>1566.541764857916</v>
+        <v>915.6839416097368</v>
       </c>
       <c r="W43" t="n">
-        <v>1277.124594820955</v>
+        <v>626.2667715727762</v>
       </c>
       <c r="X43" t="n">
-        <v>1049.135043922938</v>
+        <v>398.2772206747588</v>
       </c>
       <c r="Y43" t="n">
-        <v>828.3424647794079</v>
+        <v>398.2772206747588</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1822.632236038042</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C44" t="n">
-        <v>1453.669719097631</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D44" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E44" t="n">
-        <v>709.6157678926361</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F44" t="n">
-        <v>298.6298631030285</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M44" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.60582160917</v>
+        <v>3170.585957320566</v>
       </c>
       <c r="V44" t="n">
-        <v>3325.60582160917</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W44" t="n">
-        <v>2972.837166339056</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X44" t="n">
-        <v>2599.371408077976</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.232076102164</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="45">
@@ -7718,22 +7718,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>533.4780323548191</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="C46" t="n">
-        <v>364.5418494269122</v>
+        <v>304.8914167017408</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>154.7747772894051</v>
       </c>
       <c r="E46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U46" t="n">
-        <v>1708.010285469454</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1453.325797263567</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W46" t="n">
-        <v>1163.908627226606</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X46" t="n">
-        <v>935.919076328589</v>
+        <v>707.3324606755107</v>
       </c>
       <c r="Y46" t="n">
-        <v>715.1264971850588</v>
+        <v>486.5398815319805</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>138.9393975111067</v>
       </c>
       <c r="R3" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8139,16 +8139,16 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457084</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>75.41988959484672</v>
+        <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761162</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,31 +8294,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418308</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>265.0304328515148</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>51.53815565544053</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>45.7835134358323</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>56.2746049302076</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>0.5463950602909904</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -22549,25 +22549,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>200.1003545949129</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753915</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.097833230058</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>1.749349514394794</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,19 +22594,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>11.50893333199741</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310532</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>64.16939599459965</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715752</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22707,28 +22707,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>102.6181204308044</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>206.7802557954962</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2650814934503</v>
+        <v>46.91356563188788</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>38.1840682227172</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>31.05906618577484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917687</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707557</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.1621657402054</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>180.5549891403834</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,16 +22834,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>212.2897156032233</v>
+        <v>162.2085756702122</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -22852,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22868,16 +22868,16 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22910,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527771</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>122.3726455427552</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22950,19 +22950,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>57.14655128500732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>144.4978299879544</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>199.5272016498744</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23029,7 +23029,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>318.7180132816663</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>294.7321536188797</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>42.04518470759564</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -23153,7 +23153,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -23165,7 +23165,7 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>201.0899236805583</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>74.47544162172413</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>58.17808575937725</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.803454668018</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.51626366671985</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>252.7660607388424</v>
+        <v>296.7574771839096</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
         <v>294.6077643873205</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.142136056966</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>65.66927630195823</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23500,19 +23500,19 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>375.4949596575445</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -23554,13 +23554,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>220.0509458470713</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23652,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>105.0742887270135</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>154.8576191056866</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>325.4417151617389</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>194.8187766984387</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23895,22 +23895,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>14.6234381411528</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,19 +23940,19 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>145.5899787627309</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23977,16 +23977,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>166.6308927084668</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>297.7205209039946</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24025,10 +24025,10 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24037,7 +24037,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>236.6891648270357</v>
       </c>
       <c r="W22" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24208,10 +24208,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>92.59716673774733</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,10 +24271,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>264.8963081382994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>2.335964134056951</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>83.32522828944201</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24460,10 +24460,10 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>97.56900454809588</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>377.0852116427184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24651,13 +24651,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>16.14213605696608</v>
       </c>
       <c r="U28" t="n">
-        <v>84.85180572133191</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24688,16 +24688,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>14.67876349279896</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
         <v>41.57692977292595</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>292.325492474227</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>82.55208449419918</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>58.19598621064651</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>121.8570868232607</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.6077643873205</v>
@@ -24967,16 +24967,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>97.9556892659979</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>92.30923329343864</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>82.55208449419962</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0258082590282</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>137.1301661019863</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -25165,16 +25165,16 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>290.3129182374914</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>132.0262023876709</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>42.59816697291234</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25405,13 +25405,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,19 +25441,19 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>82.8789797708432</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.14213605696594</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>34.14081246905656</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25642,10 +25642,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>106.0018201581684</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -25684,16 +25684,16 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>55.94857654025782</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>17.99873547738926</v>
+        <v>35.10510839313088</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>181.1251564493168</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,13 +25921,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>97.52550631318232</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.05392839791975</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26073,16 +26073,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>69.12041821276446</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>463673.9492869357</v>
+        <v>786603.5371079206</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>526021.0465876195</v>
+        <v>786603.5371079207</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>718396.6610026542</v>
+        <v>861976.3556801414</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975233</v>
       </c>
     </row>
     <row r="12">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180441.6164408227</v>
+        <v>305971.6304943086</v>
       </c>
       <c r="C2" t="n">
-        <v>203966.5811971123</v>
+        <v>305971.6304943087</v>
       </c>
       <c r="D2" t="n">
-        <v>279547.2423401897</v>
+        <v>340317.4959346298</v>
       </c>
       <c r="E2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
+        <v>340997.0989709206</v>
+      </c>
+      <c r="G2" t="n">
         <v>340997.0989709205</v>
-      </c>
-      <c r="G2" t="n">
-        <v>340997.0989709206</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
+        <v>340997.0989709207</v>
+      </c>
+      <c r="J2" t="n">
         <v>340997.0989709205</v>
       </c>
-      <c r="J2" t="n">
-        <v>340997.0989709206</v>
-      </c>
       <c r="K2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="O2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709204</v>
+        <v>340997.0989709205</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>84336.10254477395</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>291724.1809599835</v>
+        <v>188889.5747428873</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.7457669092</v>
+        <v>3532.782152305856</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854461</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>19608.42855040618</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>70460.80690932037</v>
+        <v>47356.91677008683</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608596</v>
+        <v>922.6618692425897</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12732.5212819199</v>
+        <v>22196.27613594854</v>
       </c>
       <c r="C4" t="n">
-        <v>16333.27348544816</v>
+        <v>22196.27613594852</v>
       </c>
       <c r="D4" t="n">
-        <v>19973.84716017453</v>
+        <v>11801.276833267</v>
       </c>
       <c r="E4" t="n">
         <v>11600.2349971284</v>
@@ -26469,28 +26469,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426619</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>107642.9682537726</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="F5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="J5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480633.6077735562</v>
+        <v>-929141.6643792957</v>
       </c>
       <c r="C6" t="n">
-        <v>40249.401962624</v>
+        <v>185610.1191966238</v>
       </c>
       <c r="D6" t="n">
-        <v>-117349.8676358406</v>
+        <v>28473.50665482719</v>
       </c>
       <c r="E6" t="n">
-        <v>-20940.22235451046</v>
+        <v>248081.551962032</v>
       </c>
       <c r="F6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="G6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="H6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="I6" t="n">
-        <v>255090.5234123989</v>
+        <v>251614.334114338</v>
       </c>
       <c r="J6" t="n">
-        <v>206025.5786838543</v>
+        <v>84009.15630435533</v>
       </c>
       <c r="K6" t="n">
-        <v>235482.0948619928</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="L6" t="n">
-        <v>184629.7165030784</v>
+        <v>204257.417344251</v>
       </c>
       <c r="M6" t="n">
-        <v>182999.1707963129</v>
+        <v>250691.6722450952</v>
       </c>
       <c r="N6" t="n">
-        <v>255090.5234123986</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="O6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143378</v>
       </c>
       <c r="P6" t="n">
-        <v>255090.5234123988</v>
+        <v>251614.3341143377</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>614.055013769478</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>1086.755407162286</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015061</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261639</v>
+        <v>827.6990193689928</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="G4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="H4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="G4" t="n">
-        <v>831.4014554022925</v>
-      </c>
-      <c r="H4" t="n">
-        <v>831.4014554022925</v>
-      </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="J4" t="n">
         <v>831.4014554022925</v>
@@ -26822,16 +26822,16 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>65.58507285657345</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>239.6556507682068</v>
+        <v>152.6905150447473</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556135</v>
+        <v>3.021293431011827</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>76.18829283518613</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>278.4010767246578</v>
+        <v>187.114187268954</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761286</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518613</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246578</v>
+        <v>187.114187268954</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761286</v>
+        <v>3.702436033300387</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>76.18829283518613</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>278.4010767246578</v>
+        <v>187.114187268954</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761286</v>
+        <v>3.702436033300046</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575676</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765069</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276991</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604415</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820538</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425035</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>25.28116948649915</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350877</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388633</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016251</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167916</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>433.458039945929</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>440.471844198683</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>415.9250721658378</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269072</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.577018565623</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>155.0658623465205</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702305</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>10.8061339609081</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540028</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.320797576787179</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>12.75612396528671</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990946</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472484</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919894</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458303</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043655</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>343.5174364293989</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542724</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480711</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>168.5986520825178</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736542</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163904</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944812</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020919</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912173</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>9.845013171582785</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244973</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779065</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225234</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440335</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>173.5762393840509</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>169.4489843734693</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>156.513563181768</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555595</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919118</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350553</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337851</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715649</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339134</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>4.368865958441349</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>44.74264849688748</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>168.4307048628103</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>370.8020371402618</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>555.7361331610842</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>689.4398147367339</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>767.1346347251651</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>779.5476751295867</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>736.1047642553355</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>628.2483859063145</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>471.7883737696336</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>274.4357762619417</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>99.55553302798235</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>19.12471073307702</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.3495092766753079</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>2.337549366349069</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>22.57580572237127</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>80.48141458701839</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>220.8471530724794</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>377.462960617867</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>507.5455323732924</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>592.281696903446</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>607.9576310312871</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>556.1624582295524</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>446.3694048776569</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>298.3861261325584</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>145.133108903673</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>43.41895423898378</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>9.42196433190699</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1537861425229651</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.959722865374615</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>17.42371783942159</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>58.93421126053843</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>138.5524065819853</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>227.6841656317052</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>291.3573430939678</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>307.1954669786771</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>299.8910453895538</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>276.9979191894956</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>237.0195727358533</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>164.1000664815053</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>88.11626629220765</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>34.15262484475577</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>8.373361333873351</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.1068939744749791</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32484,7 +32484,7 @@
         <v>769.2673490574995</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095016</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O20" t="n">
         <v>738.1512123099059</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,7 +32806,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q24" t="n">
         <v>299.2156706987487</v>
@@ -33025,7 +33025,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33271,7 +33271,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N30" t="n">
         <v>609.6478166837925</v>
@@ -33514,13 +33514,13 @@
         <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970255</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
         <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33678,7 +33678,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781681</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
         <v>275.1987363563569</v>
@@ -33736,7 +33736,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
@@ -33757,7 +33757,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
@@ -33991,10 +33991,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34219,7 +34219,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233479</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N42" t="n">
         <v>609.6478166837925</v>
@@ -34447,7 +34447,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>255.4201198419612</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>187.52558716632</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>99.08507489005498</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
-        <v>116.8989542469472</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.470283312177</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664455</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468043</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186563</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>211.058780602092</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>185.826860744151</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716376</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117347</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763038</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659561</v>
+        <v>562.710793489365</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823472</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
-        <v>263.7138800015061</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>171.655098309828</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>164.0235134695732</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649633</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>106.3800667966405</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>192.2171678043497</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>213.1601163458915</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>213.5811567526979</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>181.0986910958077</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>131.202951120453</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.560263827496797</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>189.7561326135755</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>335.6462821161037</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>453.6733997667466</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>536.7884014978924</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>550.1346115329957</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>506.0065528336487</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>397.015390151045</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>249.4826838951841</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>58.85023844780955</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>172.7419126813485</v>
+        <v>94.00952640581272</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>239.621521643508</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>368.9911525934182</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>450.1476629814277</v>
       </c>
       <c r="N9" t="n">
-        <v>402.519578662159</v>
+        <v>476.6159189479538</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>413.5662137851079</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>312.3949974633267</v>
       </c>
       <c r="Q9" t="n">
-        <v>304.4954681847784</v>
+        <v>158.4043520465369</v>
       </c>
       <c r="R9" t="n">
-        <v>13.85280893410659</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>15.48193198348417</v>
+        <v>45.19322646531248</v>
       </c>
       <c r="K10" t="n">
-        <v>156.5898900231599</v>
+        <v>205.4146738058223</v>
       </c>
       <c r="L10" t="n">
-        <v>256.4684548971899</v>
+        <v>318.9473683542839</v>
       </c>
       <c r="M10" t="n">
-        <v>280.9040898900913</v>
+        <v>346.7793439405177</v>
       </c>
       <c r="N10" t="n">
-        <v>279.7143300212426</v>
+        <v>344.0232177687824</v>
       </c>
       <c r="O10" t="n">
-        <v>242.1833805735795</v>
+        <v>301.5830471035353</v>
       </c>
       <c r="P10" t="n">
-        <v>183.4714556748829</v>
+        <v>234.2981320007468</v>
       </c>
       <c r="Q10" t="n">
-        <v>42.74826709349601</v>
+        <v>77.93802322981087</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -36132,7 +36132,7 @@
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129106</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
         <v>508.0530008882191</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q24" t="n">
         <v>159.2338966127272</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36919,7 +36919,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N30" t="n">
         <v>478.3061046004592</v>
@@ -37162,13 +37162,13 @@
         <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525811</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37326,7 +37326,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037185</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
         <v>59.61319854222478</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
@@ -37405,7 +37405,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37639,10 +37639,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37867,7 +37867,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013295</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N42" t="n">
         <v>478.3061046004592</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_18_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>659112.7680133599</v>
+        <v>691985.8706303725</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12441881.51229507</v>
+        <v>12462791.62801786</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5567936.647039155</v>
+        <v>6927973.460166834</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9832267.361990418</v>
+        <v>9169339.733978253</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="H2" t="n">
-        <v>299.2692030480106</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>211.2228407230377</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>135.3343964518635</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S3" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>192.0665623188214</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8092030868072</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>16.26056675932818</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>82.04965905524642</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>239.3135884893127</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4496093100216</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.3343964518635</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269626</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>134.3646350838588</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.0665623188214</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8092030868072</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>79.92010044455296</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>50.16463037378301</v>
+        <v>20.64107630343883</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>116.7673879063229</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>63.21235679059542</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9338715566937</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.464536558263</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9711388310543</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.9961436311612</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.0059677968616</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>89.65963851412519</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>8.915218264396685</v>
+        <v>26.17372043046393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.264216864854</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7427643629146</v>
+        <v>162.3056641808062</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7875959384519</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>41.52066368804375</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>107.8531707337069</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>89.17712508496183</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.8639731922165</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5722280944081</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2121353820159</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>57.92556443677338</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>229.7259207147119</v>
       </c>
     </row>
     <row r="12">
@@ -1466,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1530,16 +1530,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>104.3550540205962</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>153.879672974211</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>6.435410414717246</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1660,13 +1660,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1764,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>15.07437110675847</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>131.3542190999263</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>232.8259547974228</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
-        <v>132.9334817716963</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1912,7 +1912,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,16 +2013,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>1.231144003836681</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,19 +2055,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>73.9589705134383</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2083,22 +2083,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>113.2012047494589</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,16 +2131,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>178.6478431952956</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>84.6947366044287</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2298,7 +2298,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4484784967923</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>174.9123239800291</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2332,13 +2332,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>318.3245589157061</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>163.6898441249713</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6898441249713</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>131.0573912450691</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2611,19 +2611,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>251.6719641693171</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>203.4068132192031</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>147.0633545968144</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,19 +2845,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>35.42676599590794</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>17.35112070699443</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>131.5730391207954</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>138.6444210303392</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>260.8767548402199</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>337.357841236413</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
@@ -3082,10 +3082,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U32" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>84.69473660442821</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>60.91446435200204</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2118382056129</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>340.3076597151603</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3283,7 +3283,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>58.92805047992164</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>146.8808659611381</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>209.5394763509157</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>102.8695072550971</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>26.30878201733263</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
@@ -3562,16 +3562,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>163.472338733543</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>191.5688429199806</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>219.1834685212301</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>195.0465954186442</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S42" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T42" t="n">
         <v>190.7165703189231</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>147.0633545968148</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>53.82704427691645</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
@@ -3957,7 +3957,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3976,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>145.5346636008974</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
-        <v>153.4696656457197</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S45" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T45" t="n">
         <v>190.7165703189231</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>87.38003424864942</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>209.8506364818942</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1632.391467686597</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="C2" t="n">
-        <v>1632.391467686597</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="D2" t="n">
-        <v>1632.391467686597</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="E2" t="n">
-        <v>1246.603215088353</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="F2" t="n">
-        <v>835.6173102987457</v>
+        <v>503.6451371472903</v>
       </c>
       <c r="G2" t="n">
-        <v>419.9125600230345</v>
+        <v>261.4148864993053</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362822</v>
+        <v>40.41888584470371</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816088</v>
+        <v>122.982040419296</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>262.3106962605492</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>449.0101090859568</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230817</v>
+        <v>643.3443219779392</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.22848474084</v>
+        <v>813.5133472948987</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764997</v>
+        <v>924.2476725444252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.25058172385</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="U2" t="n">
-        <v>2353.59368700598</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="V2" t="n">
-        <v>2022.530799662409</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="W2" t="n">
-        <v>2022.530799662409</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="X2" t="n">
-        <v>2022.530799662409</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1632.391467686597</v>
+        <v>745.8753877952752</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966388</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155118</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057902</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J3" t="n">
-        <v>238.4273302370161</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605188</v>
+        <v>86.79245551467741</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919905</v>
+        <v>224.0220535303714</v>
       </c>
       <c r="M3" t="n">
-        <v>1342.93511215121</v>
+        <v>403.5193898849762</v>
       </c>
       <c r="N3" t="n">
-        <v>1730.220240748155</v>
+        <v>602.1761315376409</v>
       </c>
       <c r="O3" t="n">
-        <v>2062.290675924317</v>
+        <v>761.6884442064015</v>
       </c>
       <c r="P3" t="n">
-        <v>2309.473409756614</v>
+        <v>870.3780717337004</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400155</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400155</v>
+        <v>938.1198929682071</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780096</v>
+        <v>938.1198929682071</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175226</v>
+        <v>741.1305971282947</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>512.9918096394604</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815395</v>
+        <v>277.8397014077177</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>35.60945075973271</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116707</v>
+        <v>19.18463585132041</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.18296949591</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="C4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="D4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="E4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>120.2325654469302</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>305.0655603477486</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>510.3351610669865</v>
       </c>
       <c r="N4" t="n">
-        <v>1123.088724245823</v>
+        <v>659.6893205788058</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>833.7842159674046</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074497</v>
+        <v>959.2317925660203</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>828.7538312854231</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>745.8753877952752</v>
       </c>
       <c r="U4" t="n">
-        <v>1394.715222610545</v>
+        <v>503.6451371472903</v>
       </c>
       <c r="V4" t="n">
-        <v>1140.030734404658</v>
+        <v>261.4148864993053</v>
       </c>
       <c r="W4" t="n">
-        <v>850.6135643676972</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="X4" t="n">
-        <v>622.6240134696799</v>
+        <v>19.18463585132041</v>
       </c>
       <c r="Y4" t="n">
-        <v>401.8314343261497</v>
+        <v>19.18463585132041</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1671.539306344596</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="C5" t="n">
-        <v>1302.576789404184</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="D5" t="n">
-        <v>944.3110907974335</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="E5" t="n">
-        <v>944.3110907974335</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="F5" t="n">
-        <v>533.3251860078259</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362819</v>
+        <v>49.28269087917556</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087291</v>
+        <v>294.5174947515906</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>2392.741525663978</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>2392.741525663978</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>2061.678638320407</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>2061.678638320407</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>2061.678638320407</v>
+        <v>788.4778634388467</v>
       </c>
       <c r="Y5" t="n">
-        <v>1671.539306344596</v>
+        <v>788.4778634388467</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966384</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155114</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488047</v>
+        <v>305.0283548241683</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>158.4937968510533</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>192.1295835699344</v>
       </c>
       <c r="L6" t="n">
-        <v>1117.223096727985</v>
+        <v>338.8740072302311</v>
       </c>
       <c r="M6" t="n">
-        <v>1480.485115687206</v>
+        <v>529.474696326755</v>
       </c>
       <c r="N6" t="n">
-        <v>1867.770244284151</v>
+        <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>2199.840679460312</v>
+        <v>909.4672107560898</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2562.339328400155</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2426.617474780096</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>2232.610846175226</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1769.368633815395</v>
+        <v>801.3675279810723</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>720.6401537946551</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>512.7886535891223</v>
       </c>
       <c r="Y6" t="n">
-        <v>1099.519478116707</v>
+        <v>305.0283548241683</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>1123.088724245823</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1483.191369778178</v>
+        <v>1034.005947982349</v>
       </c>
       <c r="T7" t="n">
-        <v>1260.212888972913</v>
+        <v>808.5369117403634</v>
       </c>
       <c r="U7" t="n">
-        <v>971.0945514767509</v>
+        <v>542.1592551731853</v>
       </c>
       <c r="V7" t="n">
-        <v>971.0945514767509</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="W7" t="n">
-        <v>681.6773814397902</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="X7" t="n">
-        <v>453.6878305417729</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="Y7" t="n">
-        <v>232.8952513982428</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1683.36562607547</v>
+        <v>1307.604983187693</v>
       </c>
       <c r="C8" t="n">
-        <v>1314.403109135058</v>
+        <v>1307.604983187693</v>
       </c>
       <c r="D8" t="n">
-        <v>956.137410528308</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="E8" t="n">
-        <v>892.2865450832621</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F8" t="n">
-        <v>481.3006402936545</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>66.21592154951942</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>66.21592154951942</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>66.21592154951942</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J8" t="n">
-        <v>254.0744928369595</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>586.3643121319017</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>1035.50097790098</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1566.921495383894</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N8" t="n">
-        <v>2111.554760801559</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>2612.501248106872</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P8" t="n">
-        <v>3005.546484356407</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q8" t="n">
-        <v>3252.53434141264</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R8" t="n">
-        <v>3310.796077475971</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S8" t="n">
-        <v>3200.225838528231</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T8" t="n">
-        <v>2994.194385163529</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U8" t="n">
-        <v>2740.662926950235</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V8" t="n">
-        <v>2409.600039606664</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W8" t="n">
-        <v>2056.83138433655</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X8" t="n">
-        <v>1683.36562607547</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="Y8" t="n">
-        <v>1683.36562607547</v>
+        <v>1425.551839658727</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3156003142894</v>
+        <v>931.2981106200058</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8625710331625</v>
+        <v>756.8450813388788</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9281613719111</v>
+        <v>607.9106716776275</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6907063664555</v>
+        <v>448.6732166721721</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1561483933406</v>
+        <v>302.138658699057</v>
       </c>
       <c r="G9" t="n">
-        <v>165.7864839520668</v>
+        <v>165.2626649141729</v>
       </c>
       <c r="H9" t="n">
-        <v>75.22119252365748</v>
+        <v>69.80729798300611</v>
       </c>
       <c r="I9" t="n">
-        <v>66.21592154951942</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J9" t="n">
-        <v>159.2853526912741</v>
+        <v>214.3836900926279</v>
       </c>
       <c r="K9" t="n">
-        <v>396.510659118347</v>
+        <v>371.4749568374566</v>
       </c>
       <c r="L9" t="n">
-        <v>761.8119001858311</v>
+        <v>629.0260923974442</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.458086537445</v>
+        <v>948.9329878659535</v>
       </c>
       <c r="N9" t="n">
-        <v>1679.307846295919</v>
+        <v>1291.715511860585</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.738397943176</v>
+        <v>1583.074758115151</v>
       </c>
       <c r="P9" t="n">
-        <v>2398.009445431869</v>
+        <v>1867.009313401722</v>
       </c>
       <c r="Q9" t="n">
-        <v>2554.82975395794</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R9" t="n">
-        <v>2554.82975395794</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S9" t="n">
-        <v>2425.269938942936</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.600479990497</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.532201264788</v>
+        <v>2004.514711570505</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.380093033046</v>
+        <v>1769.362603338762</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.142736304844</v>
+        <v>1515.12524661056</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.291236099311</v>
+        <v>1307.273746405028</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.530937334358</v>
+        <v>1099.513447640074</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>175.1585182502335</v>
+        <v>235.4259002817861</v>
       </c>
       <c r="C10" t="n">
-        <v>175.1585182502335</v>
+        <v>193.4858359504288</v>
       </c>
       <c r="D10" t="n">
-        <v>175.1585182502335</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E10" t="n">
-        <v>175.1585182502335</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F10" t="n">
-        <v>175.1585182502335</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G10" t="n">
-        <v>66.21592154951942</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H10" t="n">
-        <v>66.21592154951942</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I10" t="n">
-        <v>66.21592154951942</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J10" t="n">
-        <v>110.9572157501788</v>
+        <v>58.6963092017423</v>
       </c>
       <c r="K10" t="n">
-        <v>314.3177428179429</v>
+        <v>213.7203003246705</v>
       </c>
       <c r="L10" t="n">
-        <v>630.0756374886839</v>
+        <v>467.6240706728883</v>
       </c>
       <c r="M10" t="n">
-        <v>973.3871879897964</v>
+        <v>745.7191196640786</v>
       </c>
       <c r="N10" t="n">
-        <v>1313.970173580891</v>
+        <v>1022.636306385109</v>
       </c>
       <c r="O10" t="n">
-        <v>1612.537390213391</v>
+        <v>1262.397853152952</v>
       </c>
       <c r="P10" t="n">
-        <v>1844.49254089413</v>
+        <v>1444.034594271086</v>
       </c>
       <c r="Q10" t="n">
-        <v>1921.651183891643</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="R10" t="n">
-        <v>1831.573279765419</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="S10" t="n">
-        <v>1639.79148866217</v>
+        <v>1486.355378693647</v>
       </c>
       <c r="T10" t="n">
-        <v>1418.001359273879</v>
+        <v>1262.751521386271</v>
       </c>
       <c r="U10" t="n">
-        <v>1128.898192221338</v>
+        <v>973.6252003602942</v>
       </c>
       <c r="V10" t="n">
-        <v>874.2137040154511</v>
+        <v>973.6252003602942</v>
       </c>
       <c r="W10" t="n">
-        <v>584.7965339784905</v>
+        <v>684.2080303233336</v>
       </c>
       <c r="X10" t="n">
-        <v>356.8069830804732</v>
+        <v>456.2184794253162</v>
       </c>
       <c r="Y10" t="n">
-        <v>356.8069830804732</v>
+        <v>235.4259002817861</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796265</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="C11" t="n">
-        <v>552.8079389392149</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="D11" t="n">
-        <v>494.2972677909589</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="E11" t="n">
-        <v>108.5090151927147</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F11" t="n">
-        <v>108.5090151927147</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G11" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794325</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.97538618064</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.50962791956</v>
+        <v>1808.800296392464</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943748</v>
+        <v>1576.753911832149</v>
       </c>
     </row>
     <row r="12">
@@ -5096,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D12" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I12" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5138,10 +5138,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125856</v>
@@ -5153,7 +5153,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
         <v>1779.608347199865</v>
@@ -5162,10 +5162,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="13">
@@ -5175,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>529.0179941377679</v>
+        <v>339.6240985328142</v>
       </c>
       <c r="C13" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D13" t="n">
-        <v>529.0179941377679</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E13" t="n">
-        <v>381.1049005553748</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F13" t="n">
         <v>234.2149530574645</v>
       </c>
       <c r="G13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L13" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N13" t="n">
         <v>1317.747152581905</v>
@@ -5220,31 +5220,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1771.860534983229</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1482.757668108873</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V13" t="n">
-        <v>1228.073179902986</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W13" t="n">
-        <v>938.656009866025</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="X13" t="n">
-        <v>710.6664589680076</v>
+        <v>742.065142506584</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.6664589680076</v>
+        <v>521.2725633630539</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1626.299101484277</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C14" t="n">
-        <v>1257.336584543865</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D14" t="n">
-        <v>899.070885937115</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810557</v>
@@ -5296,10 +5296,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
         <v>3325.605821609171</v>
@@ -5308,22 +5308,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V14" t="n">
-        <v>2755.806928794325</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W14" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X14" t="n">
-        <v>2403.038273524211</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y14" t="n">
-        <v>2012.898941548399</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5375,10 +5375,10 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
         <v>2564.909189125856</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>848.0708164780106</v>
+        <v>231.8553933260934</v>
       </c>
       <c r="C16" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D16" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E16" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L16" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N16" t="n">
         <v>1317.747152581905</v>
@@ -5457,31 +5457,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R16" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S16" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U16" t="n">
-        <v>1794.613518694628</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V16" t="n">
-        <v>1539.929030488741</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W16" t="n">
-        <v>1250.51186045178</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X16" t="n">
-        <v>1250.51186045178</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y16" t="n">
-        <v>1029.71928130825</v>
+        <v>231.8553933260934</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2005.586939522201</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C17" t="n">
-        <v>1636.624422581789</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="E17" t="n">
         <v>892.5704713767946</v>
@@ -5506,61 +5506,61 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T17" t="n">
-        <v>3119.628073993394</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U17" t="n">
-        <v>2866.09759726723</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V17" t="n">
-        <v>2731.821353053395</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W17" t="n">
-        <v>2379.052697783281</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X17" t="n">
-        <v>2005.586939522201</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y17" t="n">
-        <v>2005.586939522201</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="18">
@@ -5570,37 +5570,37 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5627,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5636,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>775.7875500159902</v>
+        <v>681.6115596545848</v>
       </c>
       <c r="C19" t="n">
-        <v>775.7875500159902</v>
+        <v>512.6753767266779</v>
       </c>
       <c r="D19" t="n">
-        <v>625.6709106036544</v>
+        <v>362.5587373143421</v>
       </c>
       <c r="E19" t="n">
-        <v>477.7578170212613</v>
+        <v>214.645643731949</v>
       </c>
       <c r="F19" t="n">
-        <v>477.7578170212613</v>
+        <v>67.75569623403865</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5703,22 +5703,22 @@
         <v>1735.608663915319</v>
       </c>
       <c r="T19" t="n">
-        <v>1660.902633093664</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U19" t="n">
-        <v>1660.902633093664</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V19" t="n">
-        <v>1406.218144887777</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W19" t="n">
-        <v>1406.218144887777</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X19" t="n">
-        <v>1178.22859398976</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y19" t="n">
-        <v>957.4360148462299</v>
+        <v>681.6115596545848</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1616.654488422266</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="C20" t="n">
-        <v>1247.691971481854</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D20" t="n">
-        <v>889.4262728751035</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E20" t="n">
-        <v>889.4262728751035</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F20" t="n">
-        <v>478.4403680854959</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
@@ -5776,28 +5776,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3119.628073993393</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U20" t="n">
-        <v>3119.628073993393</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V20" t="n">
-        <v>3119.628073993393</v>
+        <v>2781.332309546166</v>
       </c>
       <c r="W20" t="n">
-        <v>2766.859418723279</v>
+        <v>2428.563654276052</v>
       </c>
       <c r="X20" t="n">
-        <v>2393.393660462199</v>
+        <v>2055.097896014972</v>
       </c>
       <c r="Y20" t="n">
-        <v>2003.254328486387</v>
+        <v>1664.958564039161</v>
       </c>
     </row>
     <row r="21">
@@ -5828,16 +5828,16 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E22" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F22" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5937,25 +5937,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S22" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T22" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U22" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V22" t="n">
-        <v>1119.304200633883</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W22" t="n">
-        <v>829.8870305969223</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X22" t="n">
-        <v>601.8974796989049</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y22" t="n">
-        <v>381.1049005553748</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2251.634947019675</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C23" t="n">
-        <v>1882.672430079263</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D23" t="n">
-        <v>1524.406731472513</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E23" t="n">
-        <v>1138.618478874268</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F23" t="n">
-        <v>727.6325740846607</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3325.605821609171</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V23" t="n">
-        <v>2994.542934265601</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W23" t="n">
-        <v>2641.774278995486</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X23" t="n">
-        <v>2641.774278995486</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y23" t="n">
-        <v>2251.634947019675</v>
+        <v>2182.266054653544</v>
       </c>
     </row>
     <row r="24">
@@ -6059,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031479</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.8553933260938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C25" t="n">
-        <v>231.8553933260938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D25" t="n">
-        <v>231.8553933260938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E25" t="n">
-        <v>231.8553933260938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F25" t="n">
-        <v>231.8553933260938</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
         <v>111.634748879119</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1647.321240915451</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C26" t="n">
-        <v>1278.358723975039</v>
+        <v>942.9472709150257</v>
       </c>
       <c r="D26" t="n">
-        <v>1278.358723975039</v>
+        <v>584.6815723082752</v>
       </c>
       <c r="E26" t="n">
-        <v>892.5704713767946</v>
+        <v>198.893319710031</v>
       </c>
       <c r="F26" t="n">
-        <v>481.5845665871869</v>
+        <v>198.893319710031</v>
       </c>
       <c r="G26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I26" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912088</v>
@@ -6235,7 +6235,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6250,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U26" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V26" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W26" t="n">
-        <v>2424.060412955384</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X26" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y26" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C27" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D27" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E27" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F27" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G27" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I27" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6311,7 +6311,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L27" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M27" t="n">
         <v>1212.428070438129</v>
@@ -6338,7 +6338,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U27" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V27" t="n">
         <v>1779.608347199865</v>
@@ -6347,10 +6347,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X27" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y27" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.634748879119</v>
@@ -6408,16 +6408,16 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R28" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S28" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T28" t="n">
-        <v>1530.147236421175</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U28" t="n">
-        <v>1241.044369546818</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V28" t="n">
         <v>986.3598813409312</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1590.514489367197</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>1221.551972426786</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>863.2862738200351</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>477.498021221791</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>66.5121164321834</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.5121164321834</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6493,22 +6493,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V29" t="n">
-        <v>2720.022316677245</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W29" t="n">
-        <v>2367.25366140713</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>2367.25366140713</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1977.114329431319</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6597,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>511.4317969248226</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C31" t="n">
         <v>511.4317969248226</v>
@@ -6648,25 +6648,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S31" t="n">
-        <v>1794.392488370518</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T31" t="n">
-        <v>1572.625872940044</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U31" t="n">
-        <v>1283.523006065687</v>
+        <v>1565.483062930404</v>
       </c>
       <c r="V31" t="n">
-        <v>1028.838517859801</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="W31" t="n">
-        <v>739.4213478228399</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X31" t="n">
-        <v>511.4317969248226</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y31" t="n">
-        <v>511.4317969248226</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1250.836169983545</v>
+        <v>1935.36653093099</v>
       </c>
       <c r="C32" t="n">
-        <v>1250.836169983545</v>
+        <v>1566.404013990579</v>
       </c>
       <c r="D32" t="n">
-        <v>892.5704713767946</v>
+        <v>1208.138315383828</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>822.350062785584</v>
       </c>
       <c r="F32" t="n">
         <v>481.5845665871869</v>
@@ -6730,22 +6730,22 @@
         <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3215.315153136265</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
-        <v>2961.784676410101</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V32" t="n">
-        <v>2630.721789066531</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W32" t="n">
-        <v>2277.953133796416</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X32" t="n">
-        <v>1904.487375535336</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="Y32" t="n">
-        <v>1514.348043559525</v>
+        <v>1935.36653093099</v>
       </c>
     </row>
     <row r="33">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>152.0623554265553</v>
+        <v>591.781102412113</v>
       </c>
       <c r="C34" t="n">
-        <v>66.5121164321834</v>
+        <v>422.8449194842061</v>
       </c>
       <c r="D34" t="n">
-        <v>66.5121164321834</v>
+        <v>422.8449194842061</v>
       </c>
       <c r="E34" t="n">
-        <v>66.5121164321834</v>
+        <v>274.931825901813</v>
       </c>
       <c r="F34" t="n">
-        <v>66.5121164321834</v>
+        <v>128.0418784039026</v>
       </c>
       <c r="G34" t="n">
         <v>66.5121164321834</v>
@@ -6885,25 +6885,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S34" t="n">
-        <v>1837.464090846021</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T34" t="n">
-        <v>1615.697475415547</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U34" t="n">
-        <v>1326.59460854119</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V34" t="n">
-        <v>1071.910120335303</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W34" t="n">
-        <v>782.4929502983425</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="X34" t="n">
-        <v>554.5033994003252</v>
+        <v>812.5736815556431</v>
       </c>
       <c r="Y34" t="n">
-        <v>333.710820256795</v>
+        <v>591.781102412113</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2005.586939522201</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="C35" t="n">
-        <v>1636.624422581789</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D35" t="n">
-        <v>1278.358723975039</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E35" t="n">
-        <v>892.5704713767946</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F35" t="n">
-        <v>481.5845665871869</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G35" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T35" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U35" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V35" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W35" t="n">
-        <v>3155.791869823214</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="X35" t="n">
-        <v>2782.326111562134</v>
+        <v>2277.953133796416</v>
       </c>
       <c r="Y35" t="n">
-        <v>2392.186779586323</v>
+        <v>2277.953133796416</v>
       </c>
     </row>
     <row r="36">
@@ -7007,16 +7007,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>382.3382468580007</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C37" t="n">
-        <v>213.4020639300938</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218343</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7131,16 +7131,16 @@
         <v>1513.842048484845</v>
       </c>
       <c r="V37" t="n">
-        <v>1302.186011766749</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="W37" t="n">
-        <v>1012.768841729788</v>
+        <v>1224.424878447885</v>
       </c>
       <c r="X37" t="n">
-        <v>784.7792908317706</v>
+        <v>996.4353275498672</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.9867116882405</v>
+        <v>996.4353275498672</v>
       </c>
     </row>
     <row r="38">
@@ -7150,37 +7150,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1689.318139675982</v>
+        <v>1594.601034732593</v>
       </c>
       <c r="C38" t="n">
-        <v>1320.35562273557</v>
+        <v>1225.638517792182</v>
       </c>
       <c r="D38" t="n">
-        <v>1320.35562273557</v>
+        <v>867.3728191854311</v>
       </c>
       <c r="E38" t="n">
-        <v>934.5673701373257</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="F38" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H38" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I38" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
         <v>1573.77673900139</v>
@@ -7201,25 +7201,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3299.031294318936</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T38" t="n">
-        <v>3093.053546703159</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U38" t="n">
-        <v>2839.523069976995</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V38" t="n">
-        <v>2839.523069976995</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W38" t="n">
-        <v>2839.523069976995</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X38" t="n">
-        <v>2466.057311715915</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y38" t="n">
-        <v>2075.917979740103</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="39">
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>216.6287558445192</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C40" t="n">
-        <v>216.6287558445192</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D40" t="n">
-        <v>66.51211643218343</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E40" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F40" t="n">
         <v>66.51211643218343</v>
@@ -7362,22 +7362,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1645.778206672847</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U40" t="n">
-        <v>1356.675339798491</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V40" t="n">
-        <v>1101.990851592604</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="W40" t="n">
-        <v>812.5736815556431</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="X40" t="n">
-        <v>619.069799818289</v>
+        <v>845.4915543310558</v>
       </c>
       <c r="Y40" t="n">
-        <v>398.2772206747588</v>
+        <v>845.4915543310558</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1647.321240915451</v>
+        <v>1477.112184968822</v>
       </c>
       <c r="C41" t="n">
-        <v>1278.358723975039</v>
+        <v>1108.149668028411</v>
       </c>
       <c r="D41" t="n">
-        <v>1278.358723975039</v>
+        <v>749.8839694216604</v>
       </c>
       <c r="E41" t="n">
-        <v>892.5704713767946</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="F41" t="n">
-        <v>481.5845665871869</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G41" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I41" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
@@ -7420,7 +7420,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7432,31 +7432,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U41" t="n">
-        <v>3128.589058560035</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V41" t="n">
-        <v>2797.526171216464</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W41" t="n">
-        <v>2797.526171216464</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X41" t="n">
-        <v>2424.060412955384</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y41" t="n">
-        <v>2033.921080979572</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M42" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q42" t="n">
         <v>2565.053542533341</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>216.6287558445191</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="C43" t="n">
-        <v>216.6287558445191</v>
+        <v>215.0609594592691</v>
       </c>
       <c r="D43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L43" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N43" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O43" t="n">
         <v>1617.076751502319</v>
@@ -7593,28 +7593,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1872.923796293628</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S43" t="n">
-        <v>1681.237912120454</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T43" t="n">
-        <v>1459.47129668998</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1170.368429815624</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="V43" t="n">
-        <v>915.6839416097368</v>
+        <v>1134.908724368017</v>
       </c>
       <c r="W43" t="n">
-        <v>626.2667715727762</v>
+        <v>845.4915543310562</v>
       </c>
       <c r="X43" t="n">
-        <v>398.2772206747588</v>
+        <v>617.5020034330389</v>
       </c>
       <c r="Y43" t="n">
-        <v>398.2772206747588</v>
+        <v>396.7094242895088</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1689.318139675982</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="C44" t="n">
-        <v>1320.35562273557</v>
+        <v>1439.837779452053</v>
       </c>
       <c r="D44" t="n">
-        <v>1320.35562273557</v>
+        <v>1081.572080845303</v>
       </c>
       <c r="E44" t="n">
         <v>934.5673701373257</v>
@@ -7648,22 +7648,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
         <v>3018.302393296687</v>
@@ -7678,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U44" t="n">
-        <v>3170.585957320566</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V44" t="n">
-        <v>2839.523069976995</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W44" t="n">
-        <v>2839.523069976995</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X44" t="n">
-        <v>2466.057311715915</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y44" t="n">
-        <v>2075.917979740103</v>
+        <v>1808.800296392465</v>
       </c>
     </row>
     <row r="45">
@@ -7718,10 +7718,10 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218343</v>
@@ -7730,22 +7730,22 @@
         <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M45" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N45" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O45" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>304.8914167017408</v>
+        <v>382.3382468580007</v>
       </c>
       <c r="C46" t="n">
-        <v>304.8914167017408</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="D46" t="n">
-        <v>154.7747772894051</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F46" t="n">
         <v>66.51211643218343</v>
@@ -7809,16 +7809,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L46" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N46" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O46" t="n">
         <v>1617.076751502319</v>
@@ -7833,25 +7833,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S46" t="n">
-        <v>1735.608663915319</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T46" t="n">
-        <v>1513.842048484845</v>
+        <v>1513.842048484846</v>
       </c>
       <c r="U46" t="n">
         <v>1224.739181610489</v>
       </c>
       <c r="V46" t="n">
-        <v>1224.739181610489</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="W46" t="n">
-        <v>935.322011573528</v>
+        <v>1012.768841729788</v>
       </c>
       <c r="X46" t="n">
-        <v>707.3324606755107</v>
+        <v>784.7792908317706</v>
       </c>
       <c r="Y46" t="n">
-        <v>486.5398815319805</v>
+        <v>563.9867116882405</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>6.233205181928383</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>138.9393975111067</v>
+        <v>66.78462588923533</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8148,7 +8148,7 @@
         <v>178.5096609094456</v>
       </c>
       <c r="N4" t="n">
-        <v>171.8177168444618</v>
+        <v>114.7781155068001</v>
       </c>
       <c r="O4" t="n">
         <v>163.0416663658825</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>61.89011047839803</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>97.32166909127241</v>
       </c>
       <c r="L6" t="n">
-        <v>265.0304328515148</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8549,13 +8549,13 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>70.12741386431372</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0.5463950602909904</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -22555,19 +22555,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>167.0680976002064</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>173.1089558044317</v>
       </c>
       <c r="H2" t="n">
-        <v>1.749349514394794</v>
+        <v>75.23293593371048</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,16 +22597,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>39.93194549926295</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,28 +22625,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,7 +22676,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -22688,13 +22688,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>11.88703501941453</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>189.5124184441493</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22704,10 +22704,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -22719,16 +22719,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>123.3162228448722</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U4" t="n">
-        <v>46.91356563188788</v>
+        <v>46.45270651659192</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>12.32969518232292</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>46.71505019508592</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -22786,25 +22786,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>122.4038561153564</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>162.2085756702122</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -22862,16 +22862,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -22880,10 +22880,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,19 +22913,19 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>171.7748827163666</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -22941,7 +22941,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -22956,16 +22956,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22989,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>144.4978299879544</v>
+        <v>184.0780879401549</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>265.9664537571576</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>318.7180132816663</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.7321536188797</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>42.04518470759564</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23150,13 +23150,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>30.4575541299576</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -23178,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>125.7261574105841</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -23193,13 +23193,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>58.17808575937725</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
-        <v>144.803454668018</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I10" t="n">
-        <v>96.51626366671985</v>
+        <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,7 +23238,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -23247,7 +23247,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>296.7574771839096</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>156.5120179413416</v>
       </c>
     </row>
     <row r="12">
@@ -23418,16 +23418,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>62.89176707803163</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>65.66927630195823</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>358.5862092445529</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>375.4949596575445</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23515,7 +23515,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>152.1724499918694</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>154.8576191056866</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>132.4469369735847</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>194.8187766984387</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23800,7 +23800,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.7946642551915</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,19 +23943,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>145.5899787627309</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -23971,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>297.7205209039946</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -24019,16 +24019,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>149.1044152748393</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>105.0742887270132</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>236.6891648270357</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>207.8215176834515</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>92.59716673774733</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24259,10 +24259,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24274,7 +24274,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>16.142136056966</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>2.335964134056951</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
         <v>144.7550149143208</v>
@@ -24448,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>279.8643344083844</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24499,19 +24499,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>97.56900454809588</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>16.14213605696608</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>105.0742887270136</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24694,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,19 +24733,19 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>292.325492474227</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>331.8898480104186</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24888,25 +24888,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>58.19598621064651</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>147.5674171752737</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>121.8570868232607</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>69.5182045052984</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24970,10 +24970,10 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>82.55208449419962</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>105.1113439070262</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
@@ -25125,10 +25125,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>24.96523205584725</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,7 +25171,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -25210,19 +25210,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>290.3129182374914</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>32.95111422079921</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
@@ -25371,7 +25371,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>42.59816697291234</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>279.8643344083835</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.8789797708432</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>16.35964144839426</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>34.14081246905656</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>163.5503731422505</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>55.94857654025782</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>1.55211842139758</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>35.10510839313088</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,16 +25864,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>236.3957064713643</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,22 +25918,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>97.52550631318232</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>59.05392839791975</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>42.28700684193382</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>786603.5371079206</v>
+        <v>506983.4949117685</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>786603.5371079207</v>
+        <v>526021.0465876196</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>861976.3556801414</v>
+        <v>718396.661002654</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863471.7387975235</v>
+        <v>863471.7387975238</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975234</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>863471.7387975233</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863471.7387975234</v>
+        <v>863471.7387975237</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863471.7387975237</v>
+        <v>863471.7387975235</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>305971.6304943086</v>
+        <v>196739.5707604095</v>
       </c>
       <c r="C2" t="n">
-        <v>305971.6304943087</v>
+        <v>203966.5811971126</v>
       </c>
       <c r="D2" t="n">
-        <v>340317.4959346298</v>
+        <v>279547.2423401893</v>
       </c>
       <c r="E2" t="n">
         <v>340997.0989709207</v>
       </c>
       <c r="F2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="G2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709204</v>
       </c>
       <c r="H2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="I2" t="n">
-        <v>340997.0989709207</v>
+        <v>340997.0989709205</v>
       </c>
       <c r="J2" t="n">
         <v>340997.0989709205</v>
@@ -26343,19 +26343,19 @@
         <v>340997.0989709205</v>
       </c>
       <c r="L2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709206</v>
       </c>
       <c r="M2" t="n">
         <v>340997.0989709205</v>
       </c>
       <c r="N2" t="n">
-        <v>340997.0989709206</v>
+        <v>340997.0989709207</v>
       </c>
       <c r="O2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709208</v>
       </c>
       <c r="P2" t="n">
-        <v>340997.0989709205</v>
+        <v>340997.0989709207</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>652246.4444800896</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>26462.50553395163</v>
       </c>
       <c r="D3" t="n">
-        <v>188889.5747428873</v>
+        <v>291724.1809599823</v>
       </c>
       <c r="E3" t="n">
-        <v>3532.782152305856</v>
+        <v>276030.7457669098</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>62744.31078353596</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6152.621870944738</v>
       </c>
       <c r="L3" t="n">
-        <v>47356.91677008683</v>
+        <v>70460.80690932013</v>
       </c>
       <c r="M3" t="n">
-        <v>922.6618692425897</v>
+        <v>72091.35261608619</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22196.27613594854</v>
+        <v>15342.51783632109</v>
       </c>
       <c r="C4" t="n">
-        <v>22196.27613594852</v>
+        <v>16333.27348544815</v>
       </c>
       <c r="D4" t="n">
-        <v>11801.276833267</v>
+        <v>19973.84716017452</v>
       </c>
       <c r="E4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="F4" t="n">
-        <v>11600.2349971284</v>
+        <v>11600.23499712842</v>
       </c>
       <c r="G4" t="n">
         <v>11600.2349971284</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>61145.70223437333</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>107642.9682537726</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>74306.3405613933</v>
@@ -26487,13 +26487,13 @@
         <v>74306.3405613933</v>
       </c>
       <c r="H5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="I5" t="n">
+        <v>74306.34056139328</v>
+      </c>
+      <c r="J5" t="n">
         <v>74306.3405613933</v>
-      </c>
-      <c r="I5" t="n">
-        <v>74306.3405613933</v>
-      </c>
-      <c r="J5" t="n">
-        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.34056139328</v>
@@ -26502,16 +26502,16 @@
         <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="N5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139331</v>
       </c>
       <c r="P5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139331</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-929141.6643792957</v>
+        <v>-533064.0003612333</v>
       </c>
       <c r="C6" t="n">
-        <v>185610.1191966238</v>
+        <v>97090.22745477143</v>
       </c>
       <c r="D6" t="n">
-        <v>28473.50665482719</v>
+        <v>-118004.7358487995</v>
       </c>
       <c r="E6" t="n">
-        <v>248081.551962032</v>
+        <v>-21287.84128431695</v>
       </c>
       <c r="F6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825928</v>
       </c>
       <c r="G6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825924</v>
       </c>
       <c r="H6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825927</v>
       </c>
       <c r="I6" t="n">
-        <v>251614.334114338</v>
+        <v>254742.9044825928</v>
       </c>
       <c r="J6" t="n">
-        <v>84009.15630435533</v>
+        <v>191998.5936990567</v>
       </c>
       <c r="K6" t="n">
-        <v>251614.3341143378</v>
+        <v>248590.282611648</v>
       </c>
       <c r="L6" t="n">
-        <v>204257.417344251</v>
+        <v>184282.0975732727</v>
       </c>
       <c r="M6" t="n">
-        <v>250691.6722450952</v>
+        <v>182651.5518665066</v>
       </c>
       <c r="N6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825929</v>
       </c>
       <c r="O6" t="n">
-        <v>251614.3341143378</v>
+        <v>254742.9044825928</v>
       </c>
       <c r="P6" t="n">
-        <v>251614.3341143377</v>
+        <v>254742.9044825929</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>1086.755407162286</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26776,10 +26776,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="O3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="P3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
     </row>
     <row r="4">
@@ -26789,31 +26789,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>827.6990193689928</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022925</v>
@@ -26822,13 +26822,13 @@
         <v>831.4014554022925</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="N4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022929</v>
@@ -26959,22 +26959,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>20.5789134314133</v>
       </c>
       <c r="D3" t="n">
-        <v>152.6905150447473</v>
+        <v>239.6556507682058</v>
       </c>
       <c r="E3" t="n">
-        <v>3.021293431011827</v>
+        <v>236.0660360556139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>23.90593186000112</v>
       </c>
       <c r="D4" t="n">
-        <v>187.114187268954</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="E4" t="n">
-        <v>3.702436033300046</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000385</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.905931860001</v>
       </c>
       <c r="L4" t="n">
-        <v>187.114187268954</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="M4" t="n">
-        <v>3.702436033300387</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>239.8079481415051</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>23.90593186000112</v>
       </c>
       <c r="L4" t="n">
-        <v>187.114187268954</v>
+        <v>278.4010767246569</v>
       </c>
       <c r="M4" t="n">
-        <v>3.702436033300046</v>
+        <v>289.2864986761296</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979354</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.00912071134716</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J3" t="n">
-        <v>189.8178475575841</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178438</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.684379313654579</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H4" t="n">
-        <v>14.97566335231072</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J4" t="n">
-        <v>119.0856174753787</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K4" t="n">
-        <v>195.6942511682319</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L4" t="n">
-        <v>250.4212663227908</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849627</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P4" t="n">
-        <v>203.7180217169137</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q4" t="n">
-        <v>141.0437987097484</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654579</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.368865958441349</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>44.74264849688748</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>168.4307048628103</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>370.8020371402618</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>555.7361331610842</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>689.4398147367339</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>767.1346347251651</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>779.5476751295867</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>736.1047642553355</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>628.2483859063145</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>471.7883737696336</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>274.4357762619417</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>99.55553302798235</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>19.12471073307702</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3495092766753079</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.337549366349069</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>22.57580572237127</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>80.48141458701839</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>220.8471530724794</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>377.462960617867</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>507.5455323732924</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>592.281696903446</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>607.9576310312871</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>556.1624582295524</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>446.3694048776569</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>298.3861261325584</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>145.133108903673</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>43.41895423898378</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>9.42196433190699</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1537861425229651</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.959722865374615</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>17.42371783942159</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>58.93421126053843</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
-        <v>138.5524065819853</v>
+        <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>227.6841656317052</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>291.3573430939678</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>307.1954669786771</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>299.8910453895538</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>276.9979191894956</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>237.0195727358533</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.1000664815053</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>88.11626629220765</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>34.15262484475577</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>8.373361333873351</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1068939744749791</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31837,40 +31837,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31925,16 +31925,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31943,16 +31943,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32074,40 +32074,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32162,16 +32162,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32180,16 +32180,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32496,7 +32496,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356356</v>
       </c>
       <c r="S20" t="n">
         <v>99.83230779806951</v>
@@ -32554,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32572,7 +32572,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
@@ -32806,10 +32806,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33283,7 +33283,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H41" t="n">
         <v>44.86703772844668</v>
@@ -34131,40 +34131,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J41" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T41" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U41" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H42" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R42" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34283,43 +34283,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H43" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K43" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L43" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M43" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P43" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q43" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U43" t="n">
         <v>0.1071911508780295</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H44" t="n">
         <v>44.86703772844668</v>
@@ -34368,40 +34368,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J44" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T44" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U44" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H45" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987476</v>
       </c>
       <c r="R45" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34520,43 +34520,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H46" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K46" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L46" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M46" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P46" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q46" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U46" t="n">
         <v>0.1071911508780295</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>21.44873736705384</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>83.39712583292152</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>140.7360160012659</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>188.5852654802097</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>196.2971847393761</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>111.8528537874005</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>35.33749497130819</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>189.0712562313262</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>68.29072693268384</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>181.3104407622271</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>161.1235481502633</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235322</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q3" t="n">
-        <v>255.4201198419612</v>
+        <v>89.75123316395953</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468033</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>150.862787385676</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P4" t="n">
-        <v>200.9965809818072</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>562.710793489365</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>189.7561326135755</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>335.6462821161037</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>453.6733997667466</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>536.7884014978924</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>550.1346115329957</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>506.0065528336487</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>397.015390151045</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>249.4826838951841</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
-        <v>58.85023844780955</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.00952640581272</v>
+        <v>172.7419126813483</v>
       </c>
       <c r="K9" t="n">
-        <v>239.621521643508</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>368.9911525934182</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>450.1476629814277</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>476.6159189479538</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>413.5662137851079</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>312.3949974633267</v>
+        <v>286.8025810975466</v>
       </c>
       <c r="Q9" t="n">
-        <v>158.4043520465369</v>
+        <v>304.4954681847781</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19322646531248</v>
+        <v>15.48193198348409</v>
       </c>
       <c r="K10" t="n">
-        <v>205.4146738058223</v>
+        <v>156.5898900231598</v>
       </c>
       <c r="L10" t="n">
-        <v>318.9473683542839</v>
+        <v>256.4684548971897</v>
       </c>
       <c r="M10" t="n">
-        <v>346.7793439405177</v>
+        <v>280.9040898900911</v>
       </c>
       <c r="N10" t="n">
-        <v>344.0232177687824</v>
+        <v>279.7143300212425</v>
       </c>
       <c r="O10" t="n">
-        <v>301.5830471035353</v>
+        <v>242.1833805735793</v>
       </c>
       <c r="P10" t="n">
-        <v>234.2981320007468</v>
+        <v>183.4714556748827</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.93802322981087</v>
+        <v>42.74826709349593</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L13" t="n">
         <v>319.7573721701981</v>
@@ -35582,13 +35582,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P13" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35819,13 +35819,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222388</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36220,7 +36220,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36454,10 +36454,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P24" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36931,7 +36931,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N41" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P42" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K43" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L43" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M43" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N43" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O43" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P43" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P45" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127261</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K46" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L46" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M46" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N46" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O46" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P46" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
